--- a/outputs-HGR-r202/test-o__Veillonellales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Veillonellales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Row</t>
   </si>
@@ -31,6 +31,9 @@
     <t>even_MAG-GUT1050.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10593.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT11020.fa</t>
   </si>
   <si>
@@ -400,6 +403,9 @@
     <t>even_MAG-GUT48943.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT48949.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT48957.fa</t>
   </si>
   <si>
@@ -499,6 +505,9 @@
     <t>even_MAG-GUT5199.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT54583.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT55383.fa</t>
   </si>
   <si>
@@ -535,6 +544,12 @@
     <t>even_MAG-GUT64513.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT66378.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT66382.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT66953.fa</t>
   </si>
   <si>
@@ -640,6 +655,12 @@
     <t>even_MAG-GUT7247.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT73491.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7546.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT86853.fa</t>
   </si>
   <si>
@@ -797,6 +818,18 @@
   </si>
   <si>
     <t>even_MAG-GUT92091.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9303.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9316.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9364.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9376.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT956.fa</t>
@@ -862,7 +895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F273"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -878,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
@@ -978,16 +1011,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.8831513491113374e-05</v>
+        <v>0.00013829563065561175</v>
       </c>
       <c r="C6">
-        <v>3.999442101164722e-05</v>
+        <v>0.001021130866859206</v>
       </c>
       <c r="D6">
-        <v>2.2204084989613153e-14</v>
+        <v>1.1432243211714586e-10</v>
       </c>
       <c r="E6">
-        <v>0.99993117406547505</v>
+        <v>0.99884057338816268</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -998,16 +1031,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.0417729008610242e-05</v>
+        <v>2.8831513491113374e-05</v>
       </c>
       <c r="C7">
-        <v>3.4288090078583218e-05</v>
+        <v>3.999442101164722e-05</v>
       </c>
       <c r="D7">
-        <v>2.2203995541534388e-14</v>
+        <v>2.2204084989613153e-14</v>
       </c>
       <c r="E7">
-        <v>0.99991529418089065</v>
+        <v>0.99993117406547505</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1018,16 +1051,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.5216630697240223e-05</v>
+        <v>5.0417729008610242e-05</v>
       </c>
       <c r="C8">
-        <v>6.1853674463070807e-05</v>
+        <v>3.4288090078583218e-05</v>
       </c>
       <c r="D8">
-        <v>2.2203770111609665e-14</v>
+        <v>2.2203995541534388e-14</v>
       </c>
       <c r="E8">
-        <v>0.99987292969481756</v>
+        <v>0.99991529418089065</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1058,16 +1091,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.2991321841945435e-05</v>
+        <v>6.5216630697240223e-05</v>
       </c>
       <c r="C10">
-        <v>3.9158448956572975e-05</v>
+        <v>6.1853674463070807e-05</v>
       </c>
       <c r="D10">
-        <v>2.2204171991879153e-14</v>
+        <v>2.2203770111609665e-14</v>
       </c>
       <c r="E10">
-        <v>0.9999478502291792</v>
+        <v>0.99987292969481756</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1078,16 +1111,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.5216630697240223e-05</v>
+        <v>1.2991321841945435e-05</v>
       </c>
       <c r="C11">
-        <v>6.1853674463070807e-05</v>
+        <v>3.9158448956572975e-05</v>
       </c>
       <c r="D11">
-        <v>2.2203770111609665e-14</v>
+        <v>2.2204171991879153e-14</v>
       </c>
       <c r="E11">
-        <v>0.99987292969481756</v>
+        <v>0.9999478502291792</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1098,16 +1131,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.0767714378086261e-05</v>
+        <v>6.5216630697240223e-05</v>
       </c>
       <c r="C12">
-        <v>1.8978733031832801e-05</v>
+        <v>6.1853674463070807e-05</v>
       </c>
       <c r="D12">
-        <v>2.2203854553334005e-14</v>
+        <v>2.2203770111609665e-14</v>
       </c>
       <c r="E12">
-        <v>0.999890253552568</v>
+        <v>0.99987292969481756</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1118,19 +1151,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5.052491780670943e-06</v>
+        <v>9.0767714378086261e-05</v>
       </c>
       <c r="C13">
-        <v>0.99999494741331219</v>
+        <v>1.8978733031832801e-05</v>
       </c>
       <c r="D13">
-        <v>2.2204433993728571e-14</v>
+        <v>2.2203854553334005e-14</v>
       </c>
       <c r="E13">
-        <v>9.4884913396367707e-11</v>
+        <v>0.999890253552568</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1138,16 +1171,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.1526313857349027e-06</v>
+        <v>5.052491780670943e-06</v>
       </c>
       <c r="C14">
-        <v>0.99999810603417993</v>
+        <v>0.99999494741331219</v>
       </c>
       <c r="D14">
-        <v>2.2204450321765382e-14</v>
+        <v>2.2204433993728571e-14</v>
       </c>
       <c r="E14">
-        <v>7.4133441218036476e-07</v>
+        <v>9.4884913396367707e-11</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1158,16 +1191,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.3838106277108164e-06</v>
+        <v>1.1526313857349027e-06</v>
       </c>
       <c r="C15">
-        <v>0.99999861585149052</v>
+        <v>0.99999810603417993</v>
       </c>
       <c r="D15">
-        <v>2.2204453807637328e-14</v>
+        <v>2.2204450321765382e-14</v>
       </c>
       <c r="E15">
-        <v>3.3785931029787383e-10</v>
+        <v>7.4133441218036476e-07</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1178,19 +1211,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5.9688527750369869e-05</v>
+        <v>1.3838106277108164e-06</v>
       </c>
       <c r="C16">
-        <v>2.6695323629472394e-06</v>
+        <v>0.99999861585149052</v>
       </c>
       <c r="D16">
-        <v>2.220412050390174e-14</v>
+        <v>2.2204453807637328e-14</v>
       </c>
       <c r="E16">
-        <v>0.99993764193986456</v>
+        <v>3.3785931029787383e-10</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1198,19 +1231,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.0305793299861045e-06</v>
+        <v>5.9688527750369869e-05</v>
       </c>
       <c r="C17">
-        <v>0.99999896911376129</v>
+        <v>2.6695323629472394e-06</v>
       </c>
       <c r="D17">
-        <v>2.2204455957537083e-14</v>
+        <v>2.220412050390174e-14</v>
       </c>
       <c r="E17">
-        <v>3.0688651672963507e-10</v>
+        <v>0.99993764193986456</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1218,19 +1251,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8.6455244859302144e-05</v>
+        <v>1.0305793299861045e-06</v>
       </c>
       <c r="C18">
-        <v>2.3632701641945367e-05</v>
+        <v>0.99999896911376129</v>
       </c>
       <c r="D18">
-        <v>2.2203862407188992e-14</v>
+        <v>2.2204455957537083e-14</v>
       </c>
       <c r="E18">
-        <v>0.99988991205347655</v>
+        <v>3.0688651672963507e-10</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1238,16 +1271,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6.6472394646613128e-05</v>
+        <v>8.6455244859302144e-05</v>
       </c>
       <c r="C19">
-        <v>1.1956703188253008e-05</v>
+        <v>2.3632701641945367e-05</v>
       </c>
       <c r="D19">
-        <v>2.2204031293333412e-14</v>
+        <v>2.2203862407188992e-14</v>
       </c>
       <c r="E19">
-        <v>0.99992157090214284</v>
+        <v>0.99988991205347655</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -1258,19 +1291,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.7994901945522921e-05</v>
+        <v>6.6472394646613128e-05</v>
       </c>
       <c r="C20">
-        <v>0.99997154395911891</v>
+        <v>1.1956703188253008e-05</v>
       </c>
       <c r="D20">
-        <v>2.2204309340423725e-14</v>
+        <v>2.2204031293333412e-14</v>
       </c>
       <c r="E20">
-        <v>4.6113891334811253e-07</v>
+        <v>0.99992157090214284</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1278,19 +1311,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.7737589799318234e-06</v>
+        <v>2.7994901945522921e-05</v>
       </c>
       <c r="C21">
-        <v>0.00014481597383778533</v>
+        <v>0.99997154395911891</v>
       </c>
       <c r="D21">
-        <v>2.2203628175780837e-14</v>
+        <v>2.2204309340423725e-14</v>
       </c>
       <c r="E21">
-        <v>0.99984541026716012</v>
+        <v>4.6113891334811253e-07</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1298,19 +1331,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>6.5497020531783859e-06</v>
+        <v>9.7737589799318234e-06</v>
       </c>
       <c r="C22">
-        <v>0.99999345014483221</v>
+        <v>0.00014481597383778533</v>
       </c>
       <c r="D22">
-        <v>2.2204425189449902e-14</v>
+        <v>2.2203628175780837e-14</v>
       </c>
       <c r="E22">
-        <v>1.530922995876333e-10</v>
+        <v>0.99984541026716012</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1318,16 +1351,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8.7573081414352985e-06</v>
+        <v>6.5497020531783859e-06</v>
       </c>
       <c r="C23">
-        <v>0.99999124267208428</v>
+        <v>0.99999345014483221</v>
       </c>
       <c r="D23">
-        <v>2.2204412419345274e-14</v>
+        <v>2.2204425189449902e-14</v>
       </c>
       <c r="E23">
-        <v>1.97522256035309e-11</v>
+        <v>1.530922995876333e-10</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1338,16 +1371,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7.8171103913231712e-06</v>
+        <v>8.7573081414352985e-06</v>
       </c>
       <c r="C24">
-        <v>0.99999218259160538</v>
+        <v>0.99999124267208428</v>
       </c>
       <c r="D24">
-        <v>2.2204423469856452e-14</v>
+        <v>2.2204412419345274e-14</v>
       </c>
       <c r="E24">
-        <v>2.9798108784868979e-10</v>
+        <v>1.97522256035309e-11</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1358,19 +1391,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.00010697843823256465</v>
+        <v>7.8171103913231712e-06</v>
       </c>
       <c r="C25">
-        <v>4.1251225815456031e-05</v>
+        <v>0.99999218259160538</v>
       </c>
       <c r="D25">
-        <v>2.2203660999915794e-14</v>
+        <v>2.2204423469856452e-14</v>
       </c>
       <c r="E25">
-        <v>0.99985177033592987</v>
+        <v>2.9798108784868979e-10</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1378,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9.7685438734370825e-05</v>
+        <v>0.00010697843823256465</v>
       </c>
       <c r="C26">
-        <v>3.017882057625021e-05</v>
+        <v>4.1251225815456031e-05</v>
       </c>
       <c r="D26">
-        <v>2.2203775080714277e-14</v>
+        <v>2.2203660999915794e-14</v>
       </c>
       <c r="E26">
-        <v>0.99987213574066702</v>
+        <v>0.99985177033592987</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -1398,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5.3109984486142052e-05</v>
+        <v>9.7685438734370825e-05</v>
       </c>
       <c r="C27">
-        <v>8.7375848829176608e-05</v>
+        <v>3.017882057625021e-05</v>
       </c>
       <c r="D27">
-        <v>2.2203706013180734e-14</v>
+        <v>2.2203775080714277e-14</v>
       </c>
       <c r="E27">
-        <v>0.99985951416666241</v>
+        <v>0.99987213574066702</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -1418,16 +1451,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8.3450157198714544e-05</v>
+        <v>5.3109984486142052e-05</v>
       </c>
       <c r="C28">
-        <v>1.3403801621505603e-06</v>
+        <v>8.7375848829176608e-05</v>
       </c>
       <c r="D28">
-        <v>2.2203999885657457e-14</v>
+        <v>2.2203706013180734e-14</v>
       </c>
       <c r="E28">
-        <v>0.99991520946261681</v>
+        <v>0.99985951416666241</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -1438,19 +1471,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4.2210444325087768e-07</v>
+        <v>8.3450157198714544e-05</v>
       </c>
       <c r="C29">
-        <v>0.9999995776945978</v>
+        <v>1.3403801621505603e-06</v>
       </c>
       <c r="D29">
-        <v>2.220445830544116e-14</v>
+        <v>2.2203999885657457e-14</v>
       </c>
       <c r="E29">
-        <v>2.0093682520918646e-10</v>
+        <v>0.99991520946261681</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1458,16 +1491,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5.4638641214689745e-07</v>
+        <v>4.2210444325087768e-07</v>
       </c>
       <c r="C30">
-        <v>0.99999945361132969</v>
+        <v>0.9999995776945978</v>
       </c>
       <c r="D30">
-        <v>2.2204457503681082e-14</v>
+        <v>2.220445830544116e-14</v>
       </c>
       <c r="E30">
-        <v>2.2360109631510534e-12</v>
+        <v>2.0093682520918646e-10</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1478,19 +1511,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.000129769044348986</v>
+        <v>5.4638641214689745e-07</v>
       </c>
       <c r="C31">
-        <v>0.00011157079687748187</v>
+        <v>0.99999945361132969</v>
       </c>
       <c r="D31">
-        <v>2.2203177260154584e-14</v>
+        <v>2.2204457503681082e-14</v>
       </c>
       <c r="E31">
-        <v>0.99975866015875137</v>
+        <v>2.2360109631510534e-12</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1498,19 +1531,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6.3284646295312952e-07</v>
+        <v>0.000129769044348986</v>
       </c>
       <c r="C32">
-        <v>0.99999936703791181</v>
+        <v>0.00011157079687748187</v>
       </c>
       <c r="D32">
-        <v>2.2204457199852687e-14</v>
+        <v>2.2203177260154584e-14</v>
       </c>
       <c r="E32">
-        <v>1.1560303454399099e-10</v>
+        <v>0.99975866015875137</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1518,16 +1551,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.0481985153674848e-06</v>
+        <v>6.3284646295312952e-07</v>
       </c>
       <c r="C33">
-        <v>0.99999895173241204</v>
+        <v>0.99999936703791181</v>
       </c>
       <c r="D33">
-        <v>2.2204455010444883e-14</v>
+        <v>2.2204457199852687e-14</v>
       </c>
       <c r="E33">
-        <v>6.9050241832491681e-11</v>
+        <v>1.1560303454399099e-10</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1538,19 +1571,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7.4289305460763759e-05</v>
+        <v>1.0481985153674848e-06</v>
       </c>
       <c r="C34">
-        <v>5.1037324213302716e-05</v>
+        <v>0.99999895173241204</v>
       </c>
       <c r="D34">
-        <v>2.2203779821226506e-14</v>
+        <v>2.2204455010444883e-14</v>
       </c>
       <c r="E34">
-        <v>0.99987467337030367</v>
+        <v>6.9050241832491681e-11</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1558,16 +1591,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5.0853501650714704e-05</v>
+        <v>7.4289305460763759e-05</v>
       </c>
       <c r="C35">
-        <v>4.8210401012182927e-05</v>
+        <v>5.1037324213302716e-05</v>
       </c>
       <c r="D35">
-        <v>2.2203983068518841e-14</v>
+        <v>2.2203779821226506e-14</v>
       </c>
       <c r="E35">
-        <v>0.9999009360973149</v>
+        <v>0.99987467337030367</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -1578,19 +1611,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6.2979435877624102e-06</v>
+        <v>5.0853501650714704e-05</v>
       </c>
       <c r="C36">
-        <v>0.99999370194846104</v>
+        <v>4.8210401012182927e-05</v>
       </c>
       <c r="D36">
-        <v>2.2204427310298687e-14</v>
+        <v>2.2203983068518841e-14</v>
       </c>
       <c r="E36">
-        <v>1.0792904040177805e-10</v>
+        <v>0.9999009360973149</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1598,19 +1631,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4.682182811265573e-05</v>
+        <v>6.2979435877624102e-06</v>
       </c>
       <c r="C37">
-        <v>6.1119493004709609e-06</v>
+        <v>0.99999370194846104</v>
       </c>
       <c r="D37">
-        <v>2.2204172238401849e-14</v>
+        <v>2.2204427310298687e-14</v>
       </c>
       <c r="E37">
-        <v>0.99994706622256468</v>
+        <v>1.0792904040177805e-10</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1618,19 +1651,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4.5275536584279514e-06</v>
+        <v>4.682182811265573e-05</v>
       </c>
       <c r="C38">
-        <v>0.99999547233811925</v>
+        <v>6.1119493004709609e-06</v>
       </c>
       <c r="D38">
-        <v>2.2204436869954338e-14</v>
+        <v>2.2204172238401849e-14</v>
       </c>
       <c r="E38">
-        <v>1.0820002018248391e-10</v>
+        <v>0.99994706622256468</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1638,16 +1671,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.00015093633835698523</v>
+        <v>4.5275536584279514e-06</v>
       </c>
       <c r="C39">
-        <v>0.9998490634912709</v>
+        <v>0.99999547233811925</v>
       </c>
       <c r="D39">
-        <v>2.2203649075926469e-14</v>
+        <v>2.2204436869954338e-14</v>
       </c>
       <c r="E39">
-        <v>1.7034986288300315e-10</v>
+        <v>1.0820002018248391e-10</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1658,16 +1691,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3.1247617225244586e-06</v>
+        <v>0.00015093633835698523</v>
       </c>
       <c r="C40">
-        <v>0.99999687483148769</v>
+        <v>0.9998490634912709</v>
       </c>
       <c r="D40">
-        <v>2.2204443594268819e-14</v>
+        <v>2.2203649075926469e-14</v>
       </c>
       <c r="E40">
-        <v>4.0676753359352946e-10</v>
+        <v>1.7034986288300315e-10</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1678,19 +1711,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.00012562012634558643</v>
+        <v>3.1247617225244586e-06</v>
       </c>
       <c r="C41">
-        <v>0.00020374893483085106</v>
+        <v>0.99999687483148769</v>
       </c>
       <c r="D41">
-        <v>2.2202685334417126e-14</v>
+        <v>2.2204443594268819e-14</v>
       </c>
       <c r="E41">
-        <v>0.99967063093880149</v>
+        <v>4.0676753359352946e-10</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1698,19 +1731,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2.0152969409029425e-05</v>
+        <v>0.00012562012634558643</v>
       </c>
       <c r="C42">
-        <v>0.99997984688036468</v>
+        <v>0.00020374893483085106</v>
       </c>
       <c r="D42">
-        <v>2.2204352576823672e-14</v>
+        <v>2.2202685334417126e-14</v>
       </c>
       <c r="E42">
-        <v>1.5020399498099976e-10</v>
+        <v>0.99967063093880149</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1718,16 +1751,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7.6201226720823326e-06</v>
+        <v>2.0152969409029425e-05</v>
       </c>
       <c r="C43">
-        <v>0.9999923797576189</v>
+        <v>0.99997984688036468</v>
       </c>
       <c r="D43">
-        <v>2.2204419760002388e-14</v>
+        <v>2.2204352576823672e-14</v>
       </c>
       <c r="E43">
-        <v>1.1968662214844669e-10</v>
+        <v>1.5020399498099976e-10</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1738,19 +1771,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3.7359727181990017e-05</v>
+        <v>7.6201226720823326e-06</v>
       </c>
       <c r="C44">
-        <v>4.8151236436712975e-06</v>
+        <v>0.9999923797576189</v>
       </c>
       <c r="D44">
-        <v>2.2204237223578097e-14</v>
+        <v>2.2204419760002388e-14</v>
       </c>
       <c r="E44">
-        <v>0.99995782514915221</v>
+        <v>1.1968662214844669e-10</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1758,19 +1791,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>9.0155283205980551e-05</v>
+        <v>3.7359727181990017e-05</v>
       </c>
       <c r="C45">
-        <v>0.99990984462366828</v>
+        <v>4.8151236436712975e-06</v>
       </c>
       <c r="D45">
-        <v>2.2203970758072675e-14</v>
+        <v>2.2204237223578097e-14</v>
       </c>
       <c r="E45">
-        <v>9.3103372346847948e-11</v>
+        <v>0.99995782514915221</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1778,16 +1811,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.0341297652370438e-05</v>
+        <v>9.0155283205980551e-05</v>
       </c>
       <c r="C46">
-        <v>0.99998965869715306</v>
+        <v>0.99990984462366828</v>
       </c>
       <c r="D46">
-        <v>2.2204403681647393e-14</v>
+        <v>2.2203970758072675e-14</v>
       </c>
       <c r="E46">
-        <v>5.1722938120898143e-12</v>
+        <v>9.3103372346847948e-11</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1798,19 +1831,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.00010034165907134422</v>
+        <v>1.0341297652370438e-05</v>
       </c>
       <c r="C47">
-        <v>8.5369326471582558e-05</v>
+        <v>0.99998965869715306</v>
       </c>
       <c r="D47">
-        <v>2.2203451945018228e-14</v>
+        <v>2.2204403681647393e-14</v>
       </c>
       <c r="E47">
-        <v>0.99981428901443492</v>
+        <v>5.1722938120898143e-12</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1818,19 +1851,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2.9550449056407095e-06</v>
+        <v>0.00010034165907134422</v>
       </c>
       <c r="C48">
-        <v>0.99999704491665398</v>
+        <v>8.5369326471582558e-05</v>
       </c>
       <c r="D48">
-        <v>2.2204444712838968e-14</v>
+        <v>2.2203451945018228e-14</v>
       </c>
       <c r="E48">
-        <v>3.8418208736011254e-11</v>
+        <v>0.99981428901443492</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1838,19 +1871,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.00012065902303386252</v>
+        <v>2.9550449056407095e-06</v>
       </c>
       <c r="C49">
-        <v>2.2161385020769156e-06</v>
+        <v>0.99999704491665398</v>
       </c>
       <c r="D49">
-        <v>2.220378562389146e-14</v>
+        <v>2.2204444712838968e-14</v>
       </c>
       <c r="E49">
-        <v>0.99987712483844193</v>
+        <v>3.8418208736011254e-11</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1858,16 +1891,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.00039068118410018197</v>
+        <v>0.00012065902303386252</v>
       </c>
       <c r="C50">
-        <v>0.00029450974310628401</v>
+        <v>2.2161385020769156e-06</v>
       </c>
       <c r="D50">
-        <v>2.2200821513284149e-14</v>
+        <v>2.220378562389146e-14</v>
       </c>
       <c r="E50">
-        <v>0.99931480907277126</v>
+        <v>0.99987712483844193</v>
       </c>
       <c r="F50">
         <v>4</v>
@@ -1878,16 +1911,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7.6680406135133612e-05</v>
+        <v>0.00039068118410018197</v>
       </c>
       <c r="C51">
-        <v>7.3959333016454579e-06</v>
+        <v>0.00029450974310628401</v>
       </c>
       <c r="D51">
-        <v>2.2204004008920109e-14</v>
+        <v>2.2200821513284149e-14</v>
       </c>
       <c r="E51">
-        <v>0.99991592366054105</v>
+        <v>0.99931480907277126</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -1898,16 +1931,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.00015714492724725973</v>
+        <v>7.6680406135133612e-05</v>
       </c>
       <c r="C52">
-        <v>2.0677575022330369e-05</v>
+        <v>7.3959333016454579e-06</v>
       </c>
       <c r="D52">
-        <v>2.2203498424800778e-14</v>
+        <v>2.2204004008920109e-14</v>
       </c>
       <c r="E52">
-        <v>0.9998221774977083</v>
+        <v>0.99991592366054105</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -1918,19 +1951,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>3.7730859482920262e-06</v>
+        <v>0.00015714492724725973</v>
       </c>
       <c r="C53">
-        <v>0.99999622603975313</v>
+        <v>2.0677575022330369e-05</v>
       </c>
       <c r="D53">
-        <v>2.2204440813648942e-14</v>
+        <v>2.2203498424800778e-14</v>
       </c>
       <c r="E53">
-        <v>8.7427642155437027e-10</v>
+        <v>0.9998221774977083</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1938,19 +1971,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>8.5944106544856965e-05</v>
+        <v>3.7730859482920262e-06</v>
       </c>
       <c r="C54">
-        <v>1.3959924449726345e-05</v>
+        <v>0.99999622603975313</v>
       </c>
       <c r="D54">
-        <v>2.2203914070024534e-14</v>
+        <v>2.2204440813648942e-14</v>
       </c>
       <c r="E54">
-        <v>0.99990009596898322</v>
+        <v>8.7427642155437027e-10</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1958,19 +1991,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.00015312407055241523</v>
+        <v>8.5944106544856965e-05</v>
       </c>
       <c r="C55">
-        <v>0.99984123786906409</v>
+        <v>1.3959924449726345e-05</v>
       </c>
       <c r="D55">
-        <v>2.2203663002907725e-14</v>
+        <v>2.2203914070024534e-14</v>
       </c>
       <c r="E55">
-        <v>5.6380603614189721e-06</v>
+        <v>0.99990009596898322</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -1978,16 +2011,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>9.9286771372098633e-06</v>
+        <v>0.00015312407055241523</v>
       </c>
       <c r="C56">
-        <v>0.99999007116516225</v>
+        <v>0.99984123786906409</v>
       </c>
       <c r="D56">
-        <v>2.2204408161266653e-14</v>
+        <v>2.2203663002907725e-14</v>
       </c>
       <c r="E56">
-        <v>1.5767830190168975e-10</v>
+        <v>5.6380603614189721e-06</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -1998,19 +2031,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.99999638855238526</v>
+        <v>9.9286771372098633e-06</v>
       </c>
       <c r="C57">
-        <v>2.2297700095771761e-06</v>
+        <v>0.99999007116516225</v>
       </c>
       <c r="D57">
-        <v>2.2204581016768136e-14</v>
+        <v>2.2204408161266653e-14</v>
       </c>
       <c r="E57">
-        <v>1.3816775830054161e-06</v>
+        <v>1.5767830190168975e-10</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2018,19 +2051,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7.5682668740586248e-05</v>
+        <v>0.99999638855238526</v>
       </c>
       <c r="C58">
-        <v>5.5096343716339064e-05</v>
+        <v>2.2297700095771761e-06</v>
       </c>
       <c r="D58">
-        <v>2.2203749360492956e-14</v>
+        <v>2.2204581016768136e-14</v>
       </c>
       <c r="E58">
-        <v>0.99986922098752073</v>
+        <v>1.3816775830054161e-06</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2038,19 +2071,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2.7597856357748911e-05</v>
+        <v>7.5682668740586248e-05</v>
       </c>
       <c r="C59">
-        <v>0.99997240212724614</v>
+        <v>5.5096343716339064e-05</v>
       </c>
       <c r="D59">
-        <v>2.2204309880088406e-14</v>
+        <v>2.2203749360492956e-14</v>
       </c>
       <c r="E59">
-        <v>1.6373810473457435e-11</v>
+        <v>0.99986922098752073</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -2058,16 +2091,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.00071653632489537063</v>
+        <v>2.7597856357748911e-05</v>
       </c>
       <c r="C60">
-        <v>0.99928346219101127</v>
+        <v>0.99997240212724614</v>
       </c>
       <c r="D60">
-        <v>2.2200528650062333e-14</v>
+        <v>2.2204309880088406e-14</v>
       </c>
       <c r="E60">
-        <v>1.4840710580092941e-09</v>
+        <v>1.6373810473457435e-11</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -2078,16 +2111,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>8.0842428132710324e-05</v>
+        <v>0.00071653632489537063</v>
       </c>
       <c r="C61">
-        <v>0.99991915698245371</v>
+        <v>0.99928346219101127</v>
       </c>
       <c r="D61">
-        <v>2.2204035023557137e-14</v>
+        <v>2.2200528650062333e-14</v>
       </c>
       <c r="E61">
-        <v>5.8939148215697917e-10</v>
+        <v>1.4840710580092941e-09</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -2098,16 +2131,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.00031653681741401849</v>
+        <v>8.0842428132710324e-05</v>
       </c>
       <c r="C62">
-        <v>0.99968141760046858</v>
+        <v>0.99991915698245371</v>
       </c>
       <c r="D62">
-        <v>2.2202782565772537e-14</v>
+        <v>2.2204035023557137e-14</v>
       </c>
       <c r="E62">
-        <v>2.0455820951088195e-06</v>
+        <v>5.8939148215697917e-10</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -2118,16 +2151,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.00013426837622453817</v>
+        <v>0.00031653681741401849</v>
       </c>
       <c r="C63">
-        <v>0.999865731145549</v>
+        <v>0.99968141760046858</v>
       </c>
       <c r="D63">
-        <v>2.2203750835084127e-14</v>
+        <v>2.2202782565772537e-14</v>
       </c>
       <c r="E63">
-        <v>4.7820407391726206e-10</v>
+        <v>2.0455820951088195e-06</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -2138,16 +2171,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.0055676698419288677</v>
+        <v>0.00013426837622453817</v>
       </c>
       <c r="C64">
-        <v>0.99443232996433784</v>
+        <v>0.999865731145549</v>
       </c>
       <c r="D64">
-        <v>2.2198122093962462e-14</v>
+        <v>2.2203750835084127e-14</v>
       </c>
       <c r="E64">
-        <v>1.9371100732427095e-10</v>
+        <v>4.7820407391726206e-10</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -2158,16 +2191,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>9.4808223595415796e-07</v>
+        <v>0.0055676698419288677</v>
       </c>
       <c r="C65">
-        <v>0.99999904943975715</v>
+        <v>0.99443232996433784</v>
       </c>
       <c r="D65">
-        <v>2.220445611322132e-14</v>
+        <v>2.2198122093962462e-14</v>
       </c>
       <c r="E65">
-        <v>2.4779845954800092e-09</v>
+        <v>1.9371100732427095e-10</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2178,16 +2211,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>8.8365159907941091e-07</v>
+        <v>9.4808223595415796e-07</v>
       </c>
       <c r="C66">
-        <v>0.99999911616910941</v>
+        <v>0.99999904943975715</v>
       </c>
       <c r="D66">
-        <v>2.2204455909602818e-14</v>
+        <v>2.220445611322132e-14</v>
       </c>
       <c r="E66">
-        <v>1.7926921470793712e-10</v>
+        <v>2.4779845954800092e-09</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -2198,16 +2231,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4.6628589582285716e-07</v>
+        <v>8.8365159907941091e-07</v>
       </c>
       <c r="C67">
-        <v>0.99999952761164645</v>
+        <v>0.99999911616910941</v>
       </c>
       <c r="D67">
-        <v>2.2204458359257945e-14</v>
+        <v>2.2204455909602818e-14</v>
       </c>
       <c r="E67">
-        <v>6.1024355694923892e-09</v>
+        <v>1.7926921470793712e-10</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -2218,16 +2251,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3.2526372328145877e-06</v>
+        <v>4.6628589582285716e-07</v>
       </c>
       <c r="C68">
-        <v>0.99999674713904341</v>
+        <v>0.99999952761164645</v>
       </c>
       <c r="D68">
-        <v>2.2204444230614405e-14</v>
+        <v>2.2204458359257945e-14</v>
       </c>
       <c r="E68">
-        <v>2.2370155810464602e-10</v>
+        <v>6.1024355694923892e-09</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -2238,19 +2271,19 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.99999921429764838</v>
+        <v>3.2526372328145877e-06</v>
       </c>
       <c r="C69">
-        <v>1.7193394005940137e-07</v>
+        <v>0.99999674713904341</v>
       </c>
       <c r="D69">
-        <v>2.2204457976356079e-14</v>
+        <v>2.2204444230614405e-14</v>
       </c>
       <c r="E69">
-        <v>6.1376838934996442e-07</v>
+        <v>2.2370155810464602e-10</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2258,19 +2291,19 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>6.5632387619991346e-05</v>
+        <v>0.99999921429764838</v>
       </c>
       <c r="C70">
-        <v>1.548985331567067e-05</v>
+        <v>1.7193394005940137e-07</v>
       </c>
       <c r="D70">
-        <v>2.2204021079217385e-14</v>
+        <v>2.2204457976356079e-14</v>
       </c>
       <c r="E70">
-        <v>0.99991887775904209</v>
+        <v>6.1376838934996442e-07</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2278,19 +2311,19 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.99999994821482441</v>
+        <v>6.5632387619991346e-05</v>
       </c>
       <c r="C71">
-        <v>2.1132456021804567e-08</v>
+        <v>1.548985331567067e-05</v>
       </c>
       <c r="D71">
-        <v>2.2204460322146712e-14</v>
+        <v>2.2204021079217385e-14</v>
       </c>
       <c r="E71">
-        <v>3.0652697345842205e-08</v>
+        <v>0.99991887775904209</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -2298,19 +2331,19 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2.7722157389953805e-05</v>
+        <v>0.99999994821482441</v>
       </c>
       <c r="C72">
-        <v>2.5703078473677729e-05</v>
+        <v>2.1132456021804567e-08</v>
       </c>
       <c r="D72">
-        <v>2.2204195560762369e-14</v>
+        <v>2.2204460322146712e-14</v>
       </c>
       <c r="E72">
-        <v>0.99994657476411419</v>
+        <v>3.0652697345842205e-08</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2318,19 +2351,19 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.7563369842747171e-05</v>
+        <v>2.7722157389953805e-05</v>
       </c>
       <c r="C73">
-        <v>0.99998243572585988</v>
+        <v>2.5703078473677729e-05</v>
       </c>
       <c r="D73">
-        <v>2.2204368719508453e-14</v>
+        <v>2.2204195560762369e-14</v>
       </c>
       <c r="E73">
-        <v>9.0427506543265273e-10</v>
+        <v>0.99994657476411419</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -2338,16 +2371,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.00037672437216311526</v>
+        <v>1.7563369842747171e-05</v>
       </c>
       <c r="C74">
-        <v>0.99962325007155439</v>
+        <v>0.99998243572585988</v>
       </c>
       <c r="D74">
-        <v>2.2202444737937625e-14</v>
+        <v>2.2204368719508453e-14</v>
       </c>
       <c r="E74">
-        <v>2.5556260294860375e-08</v>
+        <v>9.0427506543265273e-10</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -2358,19 +2391,19 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.99999999363688974</v>
+        <v>0.00037672437216311526</v>
       </c>
       <c r="C75">
-        <v>4.1236028896403855e-10</v>
+        <v>0.99962325007155439</v>
       </c>
       <c r="D75">
-        <v>2.2204460458061435e-14</v>
+        <v>2.2202444737937625e-14</v>
       </c>
       <c r="E75">
-        <v>5.950727853485222e-09</v>
+        <v>2.5556260294860375e-08</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2378,19 +2411,19 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.0035192466398181444</v>
+        <v>0.99999999363688974</v>
       </c>
       <c r="C76">
-        <v>0.99648075317757678</v>
+        <v>4.1236028896403855e-10</v>
       </c>
       <c r="D76">
-        <v>2.2198115687844563e-14</v>
+        <v>2.2204460458061435e-14</v>
       </c>
       <c r="E76">
-        <v>1.8258275688294731e-10</v>
+        <v>5.950727853485222e-09</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2398,16 +2431,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.00046892643827284156</v>
+        <v>0.0035192466398181444</v>
       </c>
       <c r="C77">
-        <v>0.99953107281312403</v>
+        <v>0.99648075317757678</v>
       </c>
       <c r="D77">
-        <v>2.2201953371638293e-14</v>
+        <v>2.2198115687844563e-14</v>
       </c>
       <c r="E77">
-        <v>7.4858096587848098e-10</v>
+        <v>1.8258275688294731e-10</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -2418,16 +2451,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3.8837901509403515e-06</v>
+        <v>0.00046892643827284156</v>
       </c>
       <c r="C78">
-        <v>0.99999611597319704</v>
+        <v>0.99953107281312403</v>
       </c>
       <c r="D78">
-        <v>2.2204439958666312e-14</v>
+        <v>2.2201953371638293e-14</v>
       </c>
       <c r="E78">
-        <v>2.3662993847020357e-10</v>
+        <v>7.4858096587848098e-10</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -2438,19 +2471,19 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.32761505118565e-05</v>
+        <v>3.8837901509403515e-06</v>
       </c>
       <c r="C79">
-        <v>4.8028878679760139e-05</v>
+        <v>0.99999611597319704</v>
       </c>
       <c r="D79">
-        <v>2.2204087002941989e-14</v>
+        <v>2.2204439958666312e-14</v>
       </c>
       <c r="E79">
-        <v>0.99992869497078607</v>
+        <v>2.3662993847020357e-10</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2458,19 +2491,19 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.0689549659284036e-05</v>
+        <v>2.32761505118565e-05</v>
       </c>
       <c r="C80">
-        <v>0.99998930822710841</v>
+        <v>4.8028878679760139e-05</v>
       </c>
       <c r="D80">
-        <v>2.2204405677741392e-14</v>
+        <v>2.2204087002941989e-14</v>
       </c>
       <c r="E80">
-        <v>2.2232101003619096e-09</v>
+        <v>0.99992869497078607</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -2478,19 +2511,19 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.99999989168654091</v>
+        <v>1.0689549659284036e-05</v>
       </c>
       <c r="C81">
-        <v>1.1065761585373596e-10</v>
+        <v>0.99998930822710841</v>
       </c>
       <c r="D81">
-        <v>2.2204459904179209e-14</v>
+        <v>2.2204405677741392e-14</v>
       </c>
       <c r="E81">
-        <v>1.0820277922938553e-07</v>
+        <v>2.2232101003619096e-09</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2498,19 +2531,19 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>4.566195275980438e-07</v>
+        <v>0.99999989168654091</v>
       </c>
       <c r="C82">
-        <v>0.99999954132491486</v>
+        <v>1.1065761585373596e-10</v>
       </c>
       <c r="D82">
-        <v>2.2204458792921748e-14</v>
+        <v>2.2204459904179209e-14</v>
       </c>
       <c r="E82">
-        <v>2.0555353427181461e-09</v>
+        <v>1.0820277922938553e-07</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2518,16 +2551,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>6.2410926687047241e-06</v>
+        <v>4.566195275980438e-07</v>
       </c>
       <c r="C83">
-        <v>0.99999375878168617</v>
+        <v>0.99999954132491486</v>
       </c>
       <c r="D83">
-        <v>2.2204426700759598e-14</v>
+        <v>2.2204458792921748e-14</v>
       </c>
       <c r="E83">
-        <v>1.2562295886865378e-10</v>
+        <v>2.0555353427181461e-09</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -2538,19 +2571,19 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.99999981889331113</v>
+        <v>6.2410926687047241e-06</v>
       </c>
       <c r="C84">
-        <v>1.018426310842596e-10</v>
+        <v>0.99999375878168617</v>
       </c>
       <c r="D84">
-        <v>2.2204459503036907e-14</v>
+        <v>2.2204426700759598e-14</v>
       </c>
       <c r="E84">
-        <v>1.8100482396580514e-07</v>
+        <v>1.2562295886865378e-10</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2558,19 +2591,19 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.1723651212755458e-07</v>
+        <v>0.99999981889331113</v>
       </c>
       <c r="C85">
-        <v>0.9999996860146525</v>
+        <v>1.018426310842596e-10</v>
       </c>
       <c r="D85">
-        <v>2.2204459065831659e-14</v>
+        <v>2.2204459503036907e-14</v>
       </c>
       <c r="E85">
-        <v>1.9674881315874771e-07</v>
+        <v>1.8100482396580514e-07</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2578,16 +2611,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>4.3485040828163985e-06</v>
+        <v>1.1723651212755458e-07</v>
       </c>
       <c r="C86">
-        <v>0.9999893078561195</v>
+        <v>0.9999996860146525</v>
       </c>
       <c r="D86">
-        <v>3.8539929320585526e-08</v>
+        <v>2.2204459065831659e-14</v>
       </c>
       <c r="E86">
-        <v>6.3050998684722657e-06</v>
+        <v>1.9674881315874771e-07</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -2598,19 +2631,19 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>6.6388390276815914e-06</v>
+        <v>4.3485040828163985e-06</v>
       </c>
       <c r="C87">
-        <v>5.2292120269581121e-06</v>
+        <v>0.9999893078561195</v>
       </c>
       <c r="D87">
-        <v>2.2204395380989989e-14</v>
+        <v>3.8539929320585526e-08</v>
       </c>
       <c r="E87">
-        <v>0.99998813194892322</v>
+        <v>6.3050998684722657e-06</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2618,16 +2651,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.00018646517300985731</v>
+        <v>6.6388390276815914e-06</v>
       </c>
       <c r="C88">
-        <v>5.3193513485258664e-06</v>
+        <v>5.2292120269581121e-06</v>
       </c>
       <c r="D88">
-        <v>2.2203401638313986e-14</v>
+        <v>2.2204395380989989e-14</v>
       </c>
       <c r="E88">
-        <v>0.99980821547561949</v>
+        <v>0.99998813194892322</v>
       </c>
       <c r="F88">
         <v>4</v>
@@ -2638,16 +2671,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7.8969015092407774e-05</v>
+        <v>0.00018646517300985731</v>
       </c>
       <c r="C89">
-        <v>7.2581704958634452e-05</v>
+        <v>5.3193513485258664e-06</v>
       </c>
       <c r="D89">
-        <v>2.2203644914880939e-14</v>
+        <v>2.2203401638313986e-14</v>
       </c>
       <c r="E89">
-        <v>0.99984844927992678</v>
+        <v>0.99980821547561949</v>
       </c>
       <c r="F89">
         <v>4</v>
@@ -2658,16 +2691,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.0001822327090477711</v>
+        <v>7.8969015092407774e-05</v>
       </c>
       <c r="C90">
-        <v>0.00014957897498478365</v>
+        <v>7.2581704958634452e-05</v>
       </c>
       <c r="D90">
-        <v>2.2202691811717586e-14</v>
+        <v>2.2203644914880939e-14</v>
       </c>
       <c r="E90">
-        <v>0.99966818831594517</v>
+        <v>0.99984844927992678</v>
       </c>
       <c r="F90">
         <v>4</v>
@@ -2678,16 +2711,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>4.9728417717143761e-05</v>
+        <v>0.0001822327090477711</v>
       </c>
       <c r="C91">
-        <v>3.5727442940970725e-05</v>
+        <v>0.00014957897498478365</v>
       </c>
       <c r="D91">
-        <v>2.220399808095933e-14</v>
+        <v>2.2202691811717586e-14</v>
       </c>
       <c r="E91">
-        <v>0.99991454413931957</v>
+        <v>0.99966818831594517</v>
       </c>
       <c r="F91">
         <v>4</v>
@@ -2698,19 +2731,19 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.71556643792978092</v>
+        <v>4.9728417717143761e-05</v>
       </c>
       <c r="C92">
-        <v>0.21299930469326531</v>
+        <v>3.5727442940970725e-05</v>
       </c>
       <c r="D92">
-        <v>1.6045426025037838e-05</v>
+        <v>2.220399808095933e-14</v>
       </c>
       <c r="E92">
-        <v>0.071418211950928692</v>
+        <v>0.99991454413931957</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -2718,19 +2751,19 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>8.702677888146497e-05</v>
+        <v>0.71556643792978092</v>
       </c>
       <c r="C93">
-        <v>1.3566194607238024e-05</v>
+        <v>0.21299930469326531</v>
       </c>
       <c r="D93">
-        <v>2.220393027155676e-14</v>
+        <v>1.6045426025037838e-05</v>
       </c>
       <c r="E93">
-        <v>0.99989940702648916</v>
+        <v>0.071418211950928692</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2738,16 +2771,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.00020587994598729467</v>
+        <v>8.702677888146497e-05</v>
       </c>
       <c r="C94">
-        <v>3.1645009206329051e-05</v>
+        <v>1.3566194607238024e-05</v>
       </c>
       <c r="D94">
-        <v>2.2203195241106426e-14</v>
+        <v>2.220393027155676e-14</v>
       </c>
       <c r="E94">
-        <v>0.9997624750447841</v>
+        <v>0.99989940702648916</v>
       </c>
       <c r="F94">
         <v>4</v>
@@ -2758,16 +2791,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>3.7003466315843867e-05</v>
+        <v>0.00020587994598729467</v>
       </c>
       <c r="C95">
-        <v>7.6463897786407435e-05</v>
+        <v>3.1645009206329051e-05</v>
       </c>
       <c r="D95">
-        <v>2.2203879547646367e-14</v>
+        <v>2.2203195241106426e-14</v>
       </c>
       <c r="E95">
-        <v>0.99988653263587546</v>
+        <v>0.9997624750447841</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -2778,16 +2811,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.00024339753040139421</v>
+        <v>3.7003466315843867e-05</v>
       </c>
       <c r="C96">
-        <v>0.00057059727778690898</v>
+        <v>7.6463897786407435e-05</v>
       </c>
       <c r="D96">
-        <v>2.2200167778735211e-14</v>
+        <v>2.2203879547646367e-14</v>
       </c>
       <c r="E96">
-        <v>0.99918600519178957</v>
+        <v>0.99988653263587546</v>
       </c>
       <c r="F96">
         <v>4</v>
@@ -2798,16 +2831,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2.7847263526875075e-05</v>
+        <v>0.00024339753040139421</v>
       </c>
       <c r="C97">
-        <v>1.1313074842560858e-05</v>
+        <v>0.00057059727778690898</v>
       </c>
       <c r="D97">
-        <v>2.2204260715331889e-14</v>
+        <v>2.2200167778735211e-14</v>
       </c>
       <c r="E97">
-        <v>0.99996083966160842</v>
+        <v>0.99918600519178957</v>
       </c>
       <c r="F97">
         <v>4</v>
@@ -2818,16 +2851,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>9.2025497020328188e-05</v>
+        <v>2.7847263526875075e-05</v>
       </c>
       <c r="C98">
-        <v>4.6966731106855927e-05</v>
+        <v>1.1313074842560858e-05</v>
       </c>
       <c r="D98">
-        <v>2.2203718391269723e-14</v>
+        <v>2.2204260715331889e-14</v>
       </c>
       <c r="E98">
-        <v>0.9998610077718505</v>
+        <v>0.99996083966160842</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -2838,16 +2871,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.0399229512409115e-05</v>
+        <v>9.2025497020328188e-05</v>
       </c>
       <c r="C99">
-        <v>4.0573971110650115e-07</v>
+        <v>4.6966731106855927e-05</v>
       </c>
       <c r="D99">
-        <v>2.2204400833671265e-14</v>
+        <v>2.2203718391269723e-14</v>
       </c>
       <c r="E99">
-        <v>0.99998919503075434</v>
+        <v>0.9998610077718505</v>
       </c>
       <c r="F99">
         <v>4</v>
@@ -2858,16 +2891,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>6.1295414936019438e-05</v>
+        <v>1.0399229512409115e-05</v>
       </c>
       <c r="C100">
-        <v>0.00020764104884314405</v>
+        <v>4.0573971110650115e-07</v>
       </c>
       <c r="D100">
-        <v>2.2203018058786166e-14</v>
+        <v>2.2204400833671265e-14</v>
       </c>
       <c r="E100">
-        <v>0.99973106353619867</v>
+        <v>0.99998919503075434</v>
       </c>
       <c r="F100">
         <v>4</v>
@@ -2878,16 +2911,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.00016610506629545783</v>
+        <v>6.1295414936019438e-05</v>
       </c>
       <c r="C101">
-        <v>2.3318478226910091e-05</v>
+        <v>0.00020764104884314405</v>
       </c>
       <c r="D101">
-        <v>2.2203421932763806e-14</v>
+        <v>2.2203018058786166e-14</v>
       </c>
       <c r="E101">
-        <v>0.99981057645545535</v>
+        <v>0.99973106353619867</v>
       </c>
       <c r="F101">
         <v>4</v>
@@ -2898,16 +2931,16 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>8.7456008421796e-05</v>
+        <v>0.00016610506629545783</v>
       </c>
       <c r="C102">
-        <v>6.0177779112011184e-05</v>
+        <v>2.3318478226910091e-05</v>
       </c>
       <c r="D102">
-        <v>2.2203651210452137e-14</v>
+        <v>2.2203421932763806e-14</v>
       </c>
       <c r="E102">
-        <v>0.99985236621244389</v>
+        <v>0.99981057645545535</v>
       </c>
       <c r="F102">
         <v>4</v>
@@ -2918,16 +2951,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.00022875335273090484</v>
+        <v>8.7456008421796e-05</v>
       </c>
       <c r="C103">
-        <v>0.00012218750350404214</v>
+        <v>6.0177779112011184e-05</v>
       </c>
       <c r="D103">
-        <v>2.2202559288796389e-14</v>
+        <v>2.2203651210452137e-14</v>
       </c>
       <c r="E103">
-        <v>0.99964905914374291</v>
+        <v>0.99985236621244389</v>
       </c>
       <c r="F103">
         <v>4</v>
@@ -2938,16 +2971,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>4.7601246083213737e-05</v>
+        <v>0.00022875335273090484</v>
       </c>
       <c r="C104">
-        <v>0.00016872093513302516</v>
+        <v>0.00012218750350404214</v>
       </c>
       <c r="D104">
-        <v>2.2203281353634951e-14</v>
+        <v>2.2202559288796389e-14</v>
       </c>
       <c r="E104">
-        <v>0.99978367781876165</v>
+        <v>0.99964905914374291</v>
       </c>
       <c r="F104">
         <v>4</v>
@@ -2958,19 +2991,19 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7.134318009418685e-06</v>
+        <v>4.7601246083213737e-05</v>
       </c>
       <c r="C105">
-        <v>0.99997900844782373</v>
+        <v>0.00016872093513302516</v>
       </c>
       <c r="D105">
-        <v>1.459303018272693e-07</v>
+        <v>2.2203281353634951e-14</v>
       </c>
       <c r="E105">
-        <v>1.3711303865136071e-05</v>
+        <v>0.99978367781876165</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -2978,19 +3011,19 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>5.0419368828042875e-05</v>
+        <v>7.134318009418685e-06</v>
       </c>
       <c r="C106">
-        <v>8.6094315394947686e-05</v>
+        <v>0.99997900844782373</v>
       </c>
       <c r="D106">
-        <v>2.2203718848539286e-14</v>
+        <v>1.459303018272693e-07</v>
       </c>
       <c r="E106">
-        <v>0.99986348631575483</v>
+        <v>1.3711303865136071e-05</v>
       </c>
       <c r="F106">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2998,16 +3031,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.2060450147232753e-05</v>
+        <v>5.0419368828042875e-05</v>
       </c>
       <c r="C107">
-        <v>1.819749339724424e-05</v>
+        <v>8.6094315394947686e-05</v>
       </c>
       <c r="D107">
-        <v>2.2204299881239993e-14</v>
+        <v>2.2203718848539286e-14</v>
       </c>
       <c r="E107">
-        <v>0.99996974205643341</v>
+        <v>0.99986348631575483</v>
       </c>
       <c r="F107">
         <v>4</v>
@@ -3018,16 +3051,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.00017387861694602127</v>
+        <v>1.2060450147232753e-05</v>
       </c>
       <c r="C108">
-        <v>4.1731311064335603e-05</v>
+        <v>1.819749339724424e-05</v>
       </c>
       <c r="D108">
-        <v>2.2203280152836536e-14</v>
+        <v>2.2204299881239993e-14</v>
       </c>
       <c r="E108">
-        <v>0.99978439007196751</v>
+        <v>0.99996974205643341</v>
       </c>
       <c r="F108">
         <v>4</v>
@@ -3038,16 +3071,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2.259252259929472e-05</v>
+        <v>0.00017387861694602127</v>
       </c>
       <c r="C109">
-        <v>7.2960570551917661e-05</v>
+        <v>4.1731311064335603e-05</v>
       </c>
       <c r="D109">
-        <v>2.2203944920231927e-14</v>
+        <v>2.2203280152836536e-14</v>
       </c>
       <c r="E109">
-        <v>0.99990444690682667</v>
+        <v>0.99978439007196751</v>
       </c>
       <c r="F109">
         <v>4</v>
@@ -3058,19 +3091,19 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.063742986869273863</v>
+        <v>2.259252259929472e-05</v>
       </c>
       <c r="C110">
-        <v>0.47617502628342384</v>
+        <v>7.2960570551917661e-05</v>
       </c>
       <c r="D110">
-        <v>1.5802555768347623e-13</v>
+        <v>2.2203944920231927e-14</v>
       </c>
       <c r="E110">
-        <v>0.46008198684714419</v>
+        <v>0.99990444690682667</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -3078,19 +3111,19 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>3.4215224839608171e-05</v>
+        <v>0.063742986869273863</v>
       </c>
       <c r="C111">
-        <v>3.0081125932103974e-05</v>
+        <v>0.47617502628342384</v>
       </c>
       <c r="D111">
-        <v>2.2204109284314461e-14</v>
+        <v>1.5802555768347623e-13</v>
       </c>
       <c r="E111">
-        <v>0.99993570364920614</v>
+        <v>0.46008198684714419</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3098,16 +3131,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2.5453668427936911e-05</v>
+        <v>3.4215224839608171e-05</v>
       </c>
       <c r="C112">
-        <v>0.00015993917243024204</v>
+        <v>3.0081125932103974e-05</v>
       </c>
       <c r="D112">
-        <v>2.2203484296411677e-14</v>
+        <v>2.2204109284314461e-14</v>
       </c>
       <c r="E112">
-        <v>0.99981460715911974</v>
+        <v>0.99993570364920614</v>
       </c>
       <c r="F112">
         <v>4</v>
@@ -3118,16 +3151,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.0001244865877888021</v>
+        <v>2.5453668427936911e-05</v>
       </c>
       <c r="C113">
-        <v>3.6229589699680934e-05</v>
+        <v>0.00015993917243024204</v>
       </c>
       <c r="D113">
-        <v>2.2203582659688278e-14</v>
+        <v>2.2203484296411677e-14</v>
       </c>
       <c r="E113">
-        <v>0.99983928382248932</v>
+        <v>0.99981460715911974</v>
       </c>
       <c r="F113">
         <v>4</v>
@@ -3138,16 +3171,16 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>4.7593675166073416e-05</v>
+        <v>0.0001244865877888021</v>
       </c>
       <c r="C114">
-        <v>4.7184717619463603e-05</v>
+        <v>3.6229589699680934e-05</v>
       </c>
       <c r="D114">
-        <v>2.2203951053129266e-14</v>
+        <v>2.2203582659688278e-14</v>
       </c>
       <c r="E114">
-        <v>0.99990522160719231</v>
+        <v>0.99983928382248932</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -3158,16 +3191,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7.5353075291329237e-05</v>
+        <v>4.7593675166073416e-05</v>
       </c>
       <c r="C115">
-        <v>1.0755807954195517e-05</v>
+        <v>4.7184717619463603e-05</v>
       </c>
       <c r="D115">
-        <v>2.2203986986299832e-14</v>
+        <v>2.2203951053129266e-14</v>
       </c>
       <c r="E115">
-        <v>0.99991389111673223</v>
+        <v>0.99990522160719231</v>
       </c>
       <c r="F115">
         <v>4</v>
@@ -3178,16 +3211,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.00013748379712233403</v>
+        <v>7.5353075291329237e-05</v>
       </c>
       <c r="C116">
-        <v>0.00024607612709678906</v>
+        <v>1.0755807954195517e-05</v>
       </c>
       <c r="D116">
-        <v>2.2202366442264702e-14</v>
+        <v>2.2203986986299832e-14</v>
       </c>
       <c r="E116">
-        <v>0.99961644007575878</v>
+        <v>0.99991389111673223</v>
       </c>
       <c r="F116">
         <v>4</v>
@@ -3198,16 +3231,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.00046984076309538708</v>
+        <v>0.00013748379712233403</v>
       </c>
       <c r="C117">
-        <v>9.3243001457130432e-06</v>
+        <v>0.00024607612709678906</v>
       </c>
       <c r="D117">
-        <v>2.2201811635484211e-14</v>
+        <v>2.2202366442264702e-14</v>
       </c>
       <c r="E117">
-        <v>0.99952083493673682</v>
+        <v>0.99961644007575878</v>
       </c>
       <c r="F117">
         <v>4</v>
@@ -3218,16 +3251,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>6.6529757649472741e-05</v>
+        <v>0.00046984076309538708</v>
       </c>
       <c r="C118">
-        <v>2.4034468759332601e-06</v>
+        <v>9.3243001457130432e-06</v>
       </c>
       <c r="D118">
-        <v>2.2204079618838131e-14</v>
+        <v>2.2201811635484211e-14</v>
       </c>
       <c r="E118">
-        <v>0.99993106679545229</v>
+        <v>0.99952083493673682</v>
       </c>
       <c r="F118">
         <v>4</v>
@@ -3238,16 +3271,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.6191258507877483e-05</v>
+        <v>6.6529757649472741e-05</v>
       </c>
       <c r="C119">
-        <v>6.2258675020803682e-06</v>
+        <v>2.4034468759332601e-06</v>
       </c>
       <c r="D119">
-        <v>2.2204337120677907e-14</v>
+        <v>2.2204079618838131e-14</v>
       </c>
       <c r="E119">
-        <v>0.99997758287396787</v>
+        <v>0.99993106679545229</v>
       </c>
       <c r="F119">
         <v>4</v>
@@ -3258,16 +3291,16 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.9690125360764544e-05</v>
+        <v>1.6191258507877483e-05</v>
       </c>
       <c r="C120">
-        <v>1.8941792630768859e-06</v>
+        <v>6.2258675020803682e-06</v>
       </c>
       <c r="D120">
-        <v>2.2204341546842902e-14</v>
+        <v>2.2204337120677907e-14</v>
       </c>
       <c r="E120">
-        <v>0.99997841569535395</v>
+        <v>0.99997758287396787</v>
       </c>
       <c r="F120">
         <v>4</v>
@@ -3278,16 +3311,16 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.4631304526631093e-05</v>
+        <v>1.9690125360764544e-05</v>
       </c>
       <c r="C121">
-        <v>3.1356493407094235e-06</v>
+        <v>1.8941792630768859e-06</v>
       </c>
       <c r="D121">
-        <v>2.2204252882695822e-14</v>
+        <v>2.2204341546842902e-14</v>
       </c>
       <c r="E121">
-        <v>0.99996223304611054</v>
+        <v>0.99997841569535395</v>
       </c>
       <c r="F121">
         <v>4</v>
@@ -3298,16 +3331,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>8.3442849177175346e-05</v>
+        <v>3.4631304526631093e-05</v>
       </c>
       <c r="C122">
-        <v>0.00010527294567204602</v>
+        <v>3.1356493407094235e-06</v>
       </c>
       <c r="D122">
-        <v>2.2203439541172022e-14</v>
+        <v>2.2204252882695822e-14</v>
       </c>
       <c r="E122">
-        <v>0.99981128420512855</v>
+        <v>0.99996223304611054</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -3318,16 +3351,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.00028079020023620316</v>
+        <v>8.3442849177175346e-05</v>
       </c>
       <c r="C123">
-        <v>6.2584364942629294e-08</v>
+        <v>0.00010527294567204602</v>
       </c>
       <c r="D123">
-        <v>7.8112701712845975e-13</v>
+        <v>2.2203439541172022e-14</v>
       </c>
       <c r="E123">
-        <v>0.99971914721461785</v>
+        <v>0.99981128420512855</v>
       </c>
       <c r="F123">
         <v>4</v>
@@ -3338,16 +3371,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>3.7951087881747725e-06</v>
+        <v>0.00028079020023620316</v>
       </c>
       <c r="C124">
-        <v>5.4780577155022312e-07</v>
+        <v>6.2584364942629294e-08</v>
       </c>
       <c r="D124">
-        <v>1.2361991932174345e-13</v>
+        <v>7.8112701712845975e-13</v>
       </c>
       <c r="E124">
-        <v>0.99999565708531657</v>
+        <v>0.99971914721461785</v>
       </c>
       <c r="F124">
         <v>4</v>
@@ -3358,16 +3391,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7.9844323531544725e-05</v>
+        <v>3.7951087881747725e-06</v>
       </c>
       <c r="C125">
-        <v>1.0119203887599811e-05</v>
+        <v>5.4780577155022312e-07</v>
       </c>
       <c r="D125">
-        <v>2.220396592353543e-14</v>
+        <v>1.2361991932174345e-13</v>
       </c>
       <c r="E125">
-        <v>0.99991003647255872</v>
+        <v>0.99999565708531657</v>
       </c>
       <c r="F125">
         <v>4</v>
@@ -3378,16 +3411,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.00033120512353425921</v>
+        <v>7.9844323531544725e-05</v>
       </c>
       <c r="C126">
-        <v>9.4634871254516658e-06</v>
+        <v>1.0119203887599811e-05</v>
       </c>
       <c r="D126">
-        <v>7.0295568647429672e-14</v>
+        <v>2.220396592353543e-14</v>
       </c>
       <c r="E126">
-        <v>0.9996593313892701</v>
+        <v>0.99991003647255872</v>
       </c>
       <c r="F126">
         <v>4</v>
@@ -3398,16 +3431,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2.7078442809983431e-05</v>
+        <v>0.00033120512353425921</v>
       </c>
       <c r="C127">
-        <v>4.8465969644981161e-05</v>
+        <v>9.4634871254516658e-06</v>
       </c>
       <c r="D127">
-        <v>2.2204051869204879e-14</v>
+        <v>7.0295568647429672e-14</v>
       </c>
       <c r="E127">
-        <v>0.99992445558752274</v>
+        <v>0.9996593313892701</v>
       </c>
       <c r="F127">
         <v>4</v>
@@ -3418,16 +3451,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7.3857073787273161e-05</v>
+        <v>2.7078442809983431e-05</v>
       </c>
       <c r="C128">
-        <v>0.00020659994321071593</v>
+        <v>4.8465969644981161e-05</v>
       </c>
       <c r="D128">
-        <v>2.2202959167740092e-14</v>
+        <v>2.2204051869204879e-14</v>
       </c>
       <c r="E128">
-        <v>0.99971954298297971</v>
+        <v>0.99992445558752274</v>
       </c>
       <c r="F128">
         <v>4</v>
@@ -3438,16 +3471,16 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3.7323259612059093e-05</v>
+        <v>7.3857073787273161e-05</v>
       </c>
       <c r="C129">
-        <v>0.00010445514289014964</v>
+        <v>0.00020659994321071593</v>
       </c>
       <c r="D129">
-        <v>2.2203683915033952e-14</v>
+        <v>2.2202959167740092e-14</v>
       </c>
       <c r="E129">
-        <v>0.99985822159747562</v>
+        <v>0.99971954298297971</v>
       </c>
       <c r="F129">
         <v>4</v>
@@ -3458,16 +3491,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>8.4556069055672172e-06</v>
+        <v>0.0014702643685682731</v>
       </c>
       <c r="C130">
-        <v>2.0228492284535664e-06</v>
+        <v>7.848807239029833e-05</v>
       </c>
       <c r="D130">
-        <v>2.2204403582150108e-14</v>
+        <v>4.1726801586960095e-14</v>
       </c>
       <c r="E130">
-        <v>0.9999895215438438</v>
+        <v>0.99845124755899961</v>
       </c>
       <c r="F130">
         <v>4</v>
@@ -3478,16 +3511,16 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.0002857259307873604</v>
+        <v>3.7323259612059093e-05</v>
       </c>
       <c r="C131">
-        <v>1.4381293787492221e-05</v>
+        <v>0.00010445514289014964</v>
       </c>
       <c r="D131">
-        <v>2.2202813897874128e-14</v>
+        <v>2.2203683915033952e-14</v>
       </c>
       <c r="E131">
-        <v>0.99969989277540294</v>
+        <v>0.99985822159747562</v>
       </c>
       <c r="F131">
         <v>4</v>
@@ -3498,16 +3531,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>3.225156631596423e-06</v>
+        <v>8.4556069055672172e-06</v>
       </c>
       <c r="C132">
-        <v>9.4402460719742558e-07</v>
+        <v>2.0228492284535664e-06</v>
       </c>
       <c r="D132">
-        <v>2.2204437988245476e-14</v>
+        <v>2.2204403582150108e-14</v>
       </c>
       <c r="E132">
-        <v>0.999995830818739</v>
+        <v>0.9999895215438438</v>
       </c>
       <c r="F132">
         <v>4</v>
@@ -3518,16 +3551,16 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1.635326417746441e-05</v>
+        <v>0.0002857259307873604</v>
       </c>
       <c r="C133">
-        <v>1.1905647270857632e-05</v>
+        <v>1.4381293787492221e-05</v>
       </c>
       <c r="D133">
-        <v>2.220430500221995e-14</v>
+        <v>2.2202813897874128e-14</v>
       </c>
       <c r="E133">
-        <v>0.99997174108852938</v>
+        <v>0.99969989277540294</v>
       </c>
       <c r="F133">
         <v>4</v>
@@ -3538,16 +3571,16 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.00012863105855644245</v>
+        <v>3.225156631596423e-06</v>
       </c>
       <c r="C134">
-        <v>2.3243327788367376e-05</v>
+        <v>9.4402460719742558e-07</v>
       </c>
       <c r="D134">
-        <v>2.2203639959572185e-14</v>
+        <v>2.2204437988245476e-14</v>
       </c>
       <c r="E134">
-        <v>0.9998481256136329</v>
+        <v>0.999995830818739</v>
       </c>
       <c r="F134">
         <v>4</v>
@@ -3558,16 +3591,16 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1.0475314065250574e-05</v>
+        <v>1.635326417746441e-05</v>
       </c>
       <c r="C135">
-        <v>0.00020165533990811516</v>
+        <v>1.1905647270857632e-05</v>
       </c>
       <c r="D135">
-        <v>2.2203312382173627e-14</v>
+        <v>2.220430500221995e-14</v>
       </c>
       <c r="E135">
-        <v>0.99978786934600428</v>
+        <v>0.99997174108852938</v>
       </c>
       <c r="F135">
         <v>4</v>
@@ -3578,16 +3611,16 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.00014246005576232874</v>
+        <v>0.00012863105855644245</v>
       </c>
       <c r="C136">
-        <v>7.5057334688213094e-05</v>
+        <v>2.3243327788367376e-05</v>
       </c>
       <c r="D136">
-        <v>2.2203291650951324e-14</v>
+        <v>2.2203639959572185e-14</v>
       </c>
       <c r="E136">
-        <v>0.99978248260952718</v>
+        <v>0.9998481256136329</v>
       </c>
       <c r="F136">
         <v>4</v>
@@ -3598,16 +3631,16 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>9.5051043753819383e-05</v>
+        <v>1.0475314065250574e-05</v>
       </c>
       <c r="C137">
-        <v>9.3357354761462409e-06</v>
+        <v>0.00020165533990811516</v>
       </c>
       <c r="D137">
-        <v>2.2203900985376782e-14</v>
+        <v>2.2203312382173627e-14</v>
       </c>
       <c r="E137">
-        <v>0.99989561322074771</v>
+        <v>0.99978786934600428</v>
       </c>
       <c r="F137">
         <v>4</v>
@@ -3618,16 +3651,16 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.0001702542447314596</v>
+        <v>0.00014246005576232874</v>
       </c>
       <c r="C138">
-        <v>0.0002035392988670225</v>
+        <v>7.5057334688213094e-05</v>
       </c>
       <c r="D138">
-        <v>2.2202478900012702e-14</v>
+        <v>2.2203291650951324e-14</v>
       </c>
       <c r="E138">
-        <v>0.99962620645637923</v>
+        <v>0.99978248260952718</v>
       </c>
       <c r="F138">
         <v>4</v>
@@ -3638,16 +3671,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.00010776197243225213</v>
+        <v>9.5051043753819383e-05</v>
       </c>
       <c r="C139">
-        <v>3.6888350571370099e-06</v>
+        <v>9.3357354761462409e-06</v>
       </c>
       <c r="D139">
-        <v>2.2203867745020538e-14</v>
+        <v>2.2203900985376782e-14</v>
       </c>
       <c r="E139">
-        <v>0.99988854919248837</v>
+        <v>0.99989561322074771</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -3658,16 +3691,16 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.00018595153058918276</v>
+        <v>0.0001702542447314596</v>
       </c>
       <c r="C140">
-        <v>4.1067169105419641e-05</v>
+        <v>0.0002035392988670225</v>
       </c>
       <c r="D140">
-        <v>1.4472022745058228e-13</v>
+        <v>2.2202478900012702e-14</v>
       </c>
       <c r="E140">
-        <v>0.99977298130016068</v>
+        <v>0.99962620645637923</v>
       </c>
       <c r="F140">
         <v>4</v>
@@ -3678,16 +3711,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.00013359173189329856</v>
+        <v>0.00010776197243225213</v>
       </c>
       <c r="C141">
-        <v>2.8514218646205491e-06</v>
+        <v>3.6888350571370099e-06</v>
       </c>
       <c r="D141">
-        <v>2.2203711622574744e-14</v>
+        <v>2.2203867745020538e-14</v>
       </c>
       <c r="E141">
-        <v>0.99986355684621986</v>
+        <v>0.99988854919248837</v>
       </c>
       <c r="F141">
         <v>4</v>
@@ -3698,16 +3731,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.00080293502737245311</v>
+        <v>0.00018595153058918276</v>
       </c>
       <c r="C142">
-        <v>0.00070459345251356015</v>
+        <v>4.1067169105419641e-05</v>
       </c>
       <c r="D142">
-        <v>2.2198208073217971e-14</v>
+        <v>1.4472022745058228e-13</v>
       </c>
       <c r="E142">
-        <v>0.9984924715200918</v>
+        <v>0.99977298130016068</v>
       </c>
       <c r="F142">
         <v>4</v>
@@ -3718,16 +3751,16 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2.8875020689078251e-06</v>
+        <v>0.00013359173189329856</v>
       </c>
       <c r="C143">
-        <v>4.1616836684387717e-05</v>
+        <v>2.8514218646205491e-06</v>
       </c>
       <c r="D143">
-        <v>2.2204219213683055e-14</v>
+        <v>2.2203711622574744e-14</v>
       </c>
       <c r="E143">
-        <v>0.99995549566122444</v>
+        <v>0.99986355684621986</v>
       </c>
       <c r="F143">
         <v>4</v>
@@ -3738,16 +3771,16 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.00010939398041967337</v>
+        <v>0.00080293502737245311</v>
       </c>
       <c r="C144">
-        <v>7.0962303114540972e-06</v>
+        <v>0.00070459345251356015</v>
       </c>
       <c r="D144">
-        <v>2.2203819340678578e-14</v>
+        <v>2.2198208073217971e-14</v>
       </c>
       <c r="E144">
-        <v>0.99988350978924656</v>
+        <v>0.9984924715200918</v>
       </c>
       <c r="F144">
         <v>4</v>
@@ -3758,16 +3791,16 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>3.689008701123789e-05</v>
+        <v>2.8875020689078251e-06</v>
       </c>
       <c r="C145">
-        <v>9.7499947469880614e-06</v>
+        <v>4.1616836684387717e-05</v>
       </c>
       <c r="D145">
-        <v>2.2204204677338563e-14</v>
+        <v>2.2204219213683055e-14</v>
       </c>
       <c r="E145">
-        <v>0.99995335991821965</v>
+        <v>0.99995549566122444</v>
       </c>
       <c r="F145">
         <v>4</v>
@@ -3778,16 +3811,16 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.00011347209032980627</v>
+        <v>0.00010939398041967337</v>
       </c>
       <c r="C146">
-        <v>6.01074605252629e-06</v>
+        <v>7.0962303114540972e-06</v>
       </c>
       <c r="D146">
-        <v>2.2203824927604034e-14</v>
+        <v>2.2203819340678578e-14</v>
       </c>
       <c r="E146">
-        <v>0.99988051716359538</v>
+        <v>0.99988350978924656</v>
       </c>
       <c r="F146">
         <v>4</v>
@@ -3798,16 +3831,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>5.7347781571806201e-05</v>
+        <v>3.689008701123789e-05</v>
       </c>
       <c r="C147">
-        <v>0.00045672621615707652</v>
+        <v>9.7499947469880614e-06</v>
       </c>
       <c r="D147">
-        <v>2.2202589693473085e-14</v>
+        <v>2.2204204677338563e-14</v>
       </c>
       <c r="E147">
-        <v>0.99948592600224895</v>
+        <v>0.99995335991821965</v>
       </c>
       <c r="F147">
         <v>4</v>
@@ -3818,16 +3851,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>3.410161134247851e-05</v>
+        <v>0.00011347209032980627</v>
       </c>
       <c r="C148">
-        <v>4.9089124659168957e-06</v>
+        <v>6.01074605252629e-06</v>
       </c>
       <c r="D148">
-        <v>2.2204245209040035e-14</v>
+        <v>2.2203824927604034e-14</v>
       </c>
       <c r="E148">
-        <v>0.9999609894761694</v>
+        <v>0.99988051716359538</v>
       </c>
       <c r="F148">
         <v>4</v>
@@ -3838,16 +3871,16 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1.0850705276722209e-05</v>
+        <v>5.7347781571806201e-05</v>
       </c>
       <c r="C149">
-        <v>8.3703366240244466e-05</v>
+        <v>0.00045672621615707652</v>
       </c>
       <c r="D149">
-        <v>2.2203955271760582e-14</v>
+        <v>2.2202589693473085e-14</v>
       </c>
       <c r="E149">
-        <v>0.99990544592846076</v>
+        <v>0.99948592600224895</v>
       </c>
       <c r="F149">
         <v>4</v>
@@ -3858,16 +3891,16 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.0001016012054052652</v>
+        <v>3.410161134247851e-05</v>
       </c>
       <c r="C150">
-        <v>1.0360537782732297e-05</v>
+        <v>4.9089124659168957e-06</v>
       </c>
       <c r="D150">
-        <v>2.2203853685217927e-14</v>
+        <v>2.2204245209040035e-14</v>
       </c>
       <c r="E150">
-        <v>0.99988803825678985</v>
+        <v>0.9999609894761694</v>
       </c>
       <c r="F150">
         <v>4</v>
@@ -3878,16 +3911,16 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>4.56263905538647e-05</v>
+        <v>1.0850705276722209e-05</v>
       </c>
       <c r="C151">
-        <v>3.0918161780502173e-05</v>
+        <v>8.3703366240244466e-05</v>
       </c>
       <c r="D151">
-        <v>2.2204074012481765e-14</v>
+        <v>2.2203955271760582e-14</v>
       </c>
       <c r="E151">
-        <v>0.99992345544764349</v>
+        <v>0.99990544592846076</v>
       </c>
       <c r="F151">
         <v>4</v>
@@ -3898,16 +3931,16 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>5.3281065205552946e-05</v>
+        <v>0.0001016012054052652</v>
       </c>
       <c r="C152">
-        <v>0.00019201628091862705</v>
+        <v>1.0360537782732297e-05</v>
       </c>
       <c r="D152">
-        <v>2.2203145152677977e-14</v>
+        <v>2.2203853685217927e-14</v>
       </c>
       <c r="E152">
-        <v>0.99975470265385358</v>
+        <v>0.99988803825678985</v>
       </c>
       <c r="F152">
         <v>4</v>
@@ -3918,16 +3951,16 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.00025402699477010274</v>
+        <v>4.56263905538647e-05</v>
       </c>
       <c r="C153">
-        <v>0.00011755830262990952</v>
+        <v>3.0918161780502173e-05</v>
       </c>
       <c r="D153">
-        <v>2.2202690192318231e-14</v>
+        <v>2.2204074012481765e-14</v>
       </c>
       <c r="E153">
-        <v>0.99962841470257779</v>
+        <v>0.99992345544764349</v>
       </c>
       <c r="F153">
         <v>4</v>
@@ -3938,16 +3971,16 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1.9869598653590119e-05</v>
+        <v>5.3281065205552946e-05</v>
       </c>
       <c r="C154">
-        <v>1.679370115565209e-05</v>
+        <v>0.00019201628091862705</v>
       </c>
       <c r="D154">
-        <v>2.2204273054048704e-14</v>
+        <v>2.2203145152677977e-14</v>
       </c>
       <c r="E154">
-        <v>0.99996333670016857</v>
+        <v>0.99975470265385358</v>
       </c>
       <c r="F154">
         <v>4</v>
@@ -3958,16 +3991,16 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.5395471765673043e-05</v>
+        <v>0.00025402699477010274</v>
       </c>
       <c r="C155">
-        <v>0.0001611755985237779</v>
+        <v>0.00011755830262990952</v>
       </c>
       <c r="D155">
-        <v>2.2203485297536589e-14</v>
+        <v>2.2202690192318231e-14</v>
       </c>
       <c r="E155">
-        <v>0.99982342892968834</v>
+        <v>0.99962841470257779</v>
       </c>
       <c r="F155">
         <v>4</v>
@@ -3978,16 +4011,16 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>5.1513515852495414e-06</v>
+        <v>1.9869598653590119e-05</v>
       </c>
       <c r="C156">
-        <v>5.9050087171470572e-06</v>
+        <v>1.679370115565209e-05</v>
       </c>
       <c r="D156">
-        <v>2.2204399805861166e-14</v>
+        <v>2.2204273054048704e-14</v>
       </c>
       <c r="E156">
-        <v>0.99998894363967539</v>
+        <v>0.99996333670016857</v>
       </c>
       <c r="F156">
         <v>4</v>
@@ -3998,16 +4031,16 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.00015507418321698279</v>
+        <v>1.5395471765673043e-05</v>
       </c>
       <c r="C157">
-        <v>2.555949870622824e-06</v>
+        <v>0.0001611755985237779</v>
       </c>
       <c r="D157">
-        <v>2.2203592595660993e-14</v>
+        <v>2.2203485297536589e-14</v>
       </c>
       <c r="E157">
-        <v>0.99984236986689023</v>
+        <v>0.99982342892968834</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -4018,16 +4051,16 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>4.9698320996771011e-06</v>
+        <v>5.1513515852495414e-06</v>
       </c>
       <c r="C158">
-        <v>2.6730094681233832e-06</v>
+        <v>5.9050087171470572e-06</v>
       </c>
       <c r="D158">
-        <v>2.2204418229829247e-14</v>
+        <v>2.2204399805861166e-14</v>
       </c>
       <c r="E158">
-        <v>0.99999235715840995</v>
+        <v>0.99998894363967539</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -4038,16 +4071,16 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>4.1784990021344227e-05</v>
+        <v>0.00015507418321698279</v>
       </c>
       <c r="C159">
-        <v>0.00014662017852126825</v>
+        <v>2.555949870622824e-06</v>
       </c>
       <c r="D159">
-        <v>2.2203464557469183e-14</v>
+        <v>2.2203592595660993e-14</v>
       </c>
       <c r="E159">
-        <v>0.99981159483143511</v>
+        <v>0.99984236986689023</v>
       </c>
       <c r="F159">
         <v>4</v>
@@ -4058,19 +4091,19 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>5.0422607922722131e-05</v>
+        <v>4.9698320996771011e-06</v>
       </c>
       <c r="C160">
-        <v>0.99994932904453682</v>
+        <v>2.6730094681233832e-06</v>
       </c>
       <c r="D160">
-        <v>2.2204221042571191e-14</v>
+        <v>2.2204418229829247e-14</v>
       </c>
       <c r="E160">
-        <v>2.4834751833546779e-07</v>
+        <v>0.99999235715840995</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -4078,16 +4111,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2.7898672879400412e-05</v>
+        <v>4.1784990021344227e-05</v>
       </c>
       <c r="C161">
-        <v>2.1497209410692696e-05</v>
+        <v>0.00014662017852126825</v>
       </c>
       <c r="D161">
-        <v>2.2204196623487454e-14</v>
+        <v>2.2203464557469183e-14</v>
       </c>
       <c r="E161">
-        <v>0.99995060411768766</v>
+        <v>0.99981159483143511</v>
       </c>
       <c r="F161">
         <v>4</v>
@@ -4098,19 +4131,19 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.9999999802577767</v>
+        <v>5.0422607922722131e-05</v>
       </c>
       <c r="C162">
-        <v>2.0474340684942688e-10</v>
+        <v>0.99994932904453682</v>
       </c>
       <c r="D162">
-        <v>2.2204460385350286e-14</v>
+        <v>2.2204221042571191e-14</v>
       </c>
       <c r="E162">
-        <v>1.9537457650126799e-08</v>
+        <v>2.4834751833546779e-07</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -4118,19 +4151,19 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2.2165159046891805e-05</v>
+        <v>2.7898672879400412e-05</v>
       </c>
       <c r="C163">
-        <v>0.99997783340705071</v>
+        <v>2.1497209410692696e-05</v>
       </c>
       <c r="D163">
-        <v>2.2204347596810641e-14</v>
+        <v>2.2204196623487454e-14</v>
       </c>
       <c r="E163">
-        <v>1.4338801701534109e-09</v>
+        <v>0.99995060411768766</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -4138,19 +4171,19 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.00016501168924620073</v>
+        <v>0.0020009706367984247</v>
       </c>
       <c r="C164">
-        <v>4.0650140179936248e-05</v>
+        <v>0.99799621912655934</v>
       </c>
       <c r="D164">
-        <v>2.2203343244560118e-14</v>
+        <v>2.2198084951957115e-14</v>
       </c>
       <c r="E164">
-        <v>0.99979433817055163</v>
+        <v>2.8102366201418323e-06</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4158,19 +4191,19 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>4.2867256435097284e-07</v>
+        <v>0.9999999802577767</v>
       </c>
       <c r="C165">
-        <v>0.99999799502879561</v>
+        <v>2.0474340684942688e-10</v>
       </c>
       <c r="D165">
-        <v>2.220445759898847e-14</v>
+        <v>2.2204460385350286e-14</v>
       </c>
       <c r="E165">
-        <v>1.5762986178764722e-06</v>
+        <v>1.9537457650126799e-08</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4178,19 +4211,19 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.99999975519293816</v>
+        <v>2.2165159046891805e-05</v>
       </c>
       <c r="C166">
-        <v>5.1811245922489547e-09</v>
+        <v>0.99997783340705071</v>
       </c>
       <c r="D166">
-        <v>2.206560601384992e-09</v>
+        <v>2.2204347596810641e-14</v>
       </c>
       <c r="E166">
-        <v>2.374193767350742e-07</v>
+        <v>1.4338801701534109e-09</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -4198,19 +4231,19 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7.9574545647128817e-07</v>
+        <v>0.00016501168924620073</v>
       </c>
       <c r="C167">
-        <v>0.99999920420157573</v>
+        <v>4.0650140179936248e-05</v>
       </c>
       <c r="D167">
-        <v>2.2204456214639771e-14</v>
+        <v>2.2203343244560118e-14</v>
       </c>
       <c r="E167">
-        <v>5.2945714644897855e-11</v>
+        <v>0.99979433817055163</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -4218,16 +4251,16 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2.7046145608718122e-05</v>
+        <v>4.2867256435097284e-07</v>
       </c>
       <c r="C168">
-        <v>0.9999729537995018</v>
+        <v>0.99999799502879561</v>
       </c>
       <c r="D168">
-        <v>2.2204315404964736e-14</v>
+        <v>2.220445759898847e-14</v>
       </c>
       <c r="E168">
-        <v>5.4867215538075355e-11</v>
+        <v>1.5762986178764722e-06</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -4238,19 +4271,19 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2.0091008086681838e-05</v>
+        <v>0.99999975519293816</v>
       </c>
       <c r="C169">
-        <v>0.99997990860390573</v>
+        <v>5.1811245922489547e-09</v>
       </c>
       <c r="D169">
-        <v>2.2204352219932279e-14</v>
+        <v>2.206560601384992e-09</v>
       </c>
       <c r="E169">
-        <v>3.8798528838427253e-10</v>
+        <v>2.374193767350742e-07</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4258,16 +4291,16 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2.8146220352719583e-07</v>
+        <v>7.9574545647128817e-07</v>
       </c>
       <c r="C170">
-        <v>0.99999301773378524</v>
+        <v>0.99999920420157573</v>
       </c>
       <c r="D170">
-        <v>2.2204436010476918e-14</v>
+        <v>2.2204456214639771e-14</v>
       </c>
       <c r="E170">
-        <v>6.7008039891402088e-06</v>
+        <v>5.2945714644897855e-11</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -4278,16 +4311,16 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>3.1456824241503776e-05</v>
+        <v>2.7046145608718122e-05</v>
       </c>
       <c r="C171">
-        <v>0.99996854309944794</v>
+        <v>0.9999729537995018</v>
       </c>
       <c r="D171">
-        <v>2.2204290214698438e-14</v>
+        <v>2.2204315404964736e-14</v>
       </c>
       <c r="E171">
-        <v>7.6288351102360344e-11</v>
+        <v>5.4867215538075355e-11</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -4298,19 +4331,19 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>4.8963135171013419e-05</v>
+        <v>2.0091008086681838e-05</v>
       </c>
       <c r="C172">
-        <v>2.3263086643761204e-05</v>
+        <v>0.99997990860390573</v>
       </c>
       <c r="D172">
-        <v>2.2204074401720977e-14</v>
+        <v>2.2204352219932279e-14</v>
       </c>
       <c r="E172">
-        <v>0.99992777377816311</v>
+        <v>3.8798528838427253e-10</v>
       </c>
       <c r="F172">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4318,19 +4351,19 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>4.8963135171013419e-05</v>
+        <v>2.8146220352719583e-07</v>
       </c>
       <c r="C173">
-        <v>2.3263086643761204e-05</v>
+        <v>0.99999301773378524</v>
       </c>
       <c r="D173">
-        <v>2.2204074401720977e-14</v>
+        <v>2.2204436010476918e-14</v>
       </c>
       <c r="E173">
-        <v>0.99992777377816311</v>
+        <v>6.7008039891402088e-06</v>
       </c>
       <c r="F173">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -4338,19 +4371,19 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>5.1674347805395704e-05</v>
+        <v>3.1456824241503776e-05</v>
       </c>
       <c r="C174">
-        <v>0.00010377190308034787</v>
+        <v>0.99996854309944794</v>
       </c>
       <c r="D174">
-        <v>2.2203642666774876e-14</v>
+        <v>2.2204290214698438e-14</v>
       </c>
       <c r="E174">
-        <v>0.99984455374909209</v>
+        <v>7.6288351102360344e-11</v>
       </c>
       <c r="F174">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4358,16 +4391,16 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.00013737181984384525</v>
+        <v>4.8963135171013419e-05</v>
       </c>
       <c r="C175">
-        <v>1.0573325264723529e-06</v>
+        <v>2.3263086643761204e-05</v>
       </c>
       <c r="D175">
-        <v>2.2203694504216648e-14</v>
+        <v>2.2204074401720977e-14</v>
       </c>
       <c r="E175">
-        <v>0.99986157084760752</v>
+        <v>0.99992777377816311</v>
       </c>
       <c r="F175">
         <v>4</v>
@@ -4378,16 +4411,16 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>2.4339797933301273e-05</v>
+        <v>4.8963135171013419e-05</v>
       </c>
       <c r="C176">
-        <v>3.5062528358860397e-05</v>
+        <v>2.3263086643761204e-05</v>
       </c>
       <c r="D176">
-        <v>2.2204142250883218e-14</v>
+        <v>2.2204074401720977e-14</v>
       </c>
       <c r="E176">
-        <v>0.9999405976736857</v>
+        <v>0.99992777377816311</v>
       </c>
       <c r="F176">
         <v>4</v>
@@ -4398,19 +4431,19 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7.8497002638171275e-05</v>
+        <v>0.9999986483201817</v>
       </c>
       <c r="C177">
-        <v>5.2882271620435751e-05</v>
+        <v>1.9781461575327334e-10</v>
       </c>
       <c r="D177">
-        <v>2.2203757468424682e-14</v>
+        <v>2.2204453102411389e-14</v>
       </c>
       <c r="E177">
-        <v>0.99986862072571914</v>
+        <v>1.3514819813986049e-06</v>
       </c>
       <c r="F177">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4418,19 +4451,19 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.00022755858871332033</v>
+        <v>0.99999595865529134</v>
       </c>
       <c r="C178">
-        <v>2.4242645988247157e-05</v>
+        <v>7.9004578516433826e-10</v>
       </c>
       <c r="D178">
-        <v>2.2203180308920876e-14</v>
+        <v>2.2204438568828665e-14</v>
       </c>
       <c r="E178">
-        <v>0.99974819876527621</v>
+        <v>4.0405546406568161e-06</v>
       </c>
       <c r="F178">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -4438,16 +4471,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.00014509497915468817</v>
+        <v>5.1674347805395704e-05</v>
       </c>
       <c r="C179">
-        <v>1.5920951131601921e-05</v>
+        <v>0.00010377190308034787</v>
       </c>
       <c r="D179">
-        <v>2.220358197702332e-14</v>
+        <v>2.2203642666774876e-14</v>
       </c>
       <c r="E179">
-        <v>0.99983898406969141</v>
+        <v>0.99984455374909209</v>
       </c>
       <c r="F179">
         <v>4</v>
@@ -4458,16 +4491,16 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>4.8630289545756031e-05</v>
+        <v>0.00013737181984384525</v>
       </c>
       <c r="C180">
-        <v>0.00040003239289651072</v>
+        <v>1.0573325264723529e-06</v>
       </c>
       <c r="D180">
-        <v>2.2202083399811828e-14</v>
+        <v>2.2203694504216648e-14</v>
       </c>
       <c r="E180">
-        <v>0.99955133731753554</v>
+        <v>0.99986157084760752</v>
       </c>
       <c r="F180">
         <v>4</v>
@@ -4478,16 +4511,16 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>2.8894011543190281e-05</v>
+        <v>2.4339797933301273e-05</v>
       </c>
       <c r="C181">
-        <v>1.2652931845270665e-05</v>
+        <v>3.5062528358860397e-05</v>
       </c>
       <c r="D181">
-        <v>2.2204231673562641e-14</v>
+        <v>2.2204142250883218e-14</v>
       </c>
       <c r="E181">
-        <v>0.99995845305658948</v>
+        <v>0.9999405976736857</v>
       </c>
       <c r="F181">
         <v>4</v>
@@ -4498,16 +4531,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>4.9326610846106886e-05</v>
+        <v>7.8497002638171275e-05</v>
       </c>
       <c r="C182">
-        <v>1.182553252935609e-06</v>
+        <v>5.2882271620435751e-05</v>
       </c>
       <c r="D182">
-        <v>2.2204182928414057e-14</v>
+        <v>2.2203757468424682e-14</v>
       </c>
       <c r="E182">
-        <v>0.9999494908358787</v>
+        <v>0.99986862072571914</v>
       </c>
       <c r="F182">
         <v>4</v>
@@ -4518,16 +4551,16 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>6.9099130529721482e-05</v>
+        <v>0.00022755858871332033</v>
       </c>
       <c r="C183">
-        <v>1.5515121801660178e-05</v>
+        <v>2.4242645988247157e-05</v>
       </c>
       <c r="D183">
-        <v>2.2203998440858504e-14</v>
+        <v>2.2203180308920876e-14</v>
       </c>
       <c r="E183">
-        <v>0.99991538574764638</v>
+        <v>0.99974819876527621</v>
       </c>
       <c r="F183">
         <v>4</v>
@@ -4538,16 +4571,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.00010861694332354995</v>
+        <v>0.00014509497915468817</v>
       </c>
       <c r="C184">
-        <v>3.9579507003857187e-05</v>
+        <v>1.5920951131601921e-05</v>
       </c>
       <c r="D184">
-        <v>2.2203653749082851e-14</v>
+        <v>2.220358197702332e-14</v>
       </c>
       <c r="E184">
-        <v>0.99985180354965042</v>
+        <v>0.99983898406969141</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -4558,16 +4591,16 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.00013515182085402304</v>
+        <v>4.8630289545756031e-05</v>
       </c>
       <c r="C185">
-        <v>4.9114945588886768e-06</v>
+        <v>0.00040003239289651072</v>
       </c>
       <c r="D185">
-        <v>2.2203689687776895e-14</v>
+        <v>2.2202083399811828e-14</v>
       </c>
       <c r="E185">
-        <v>0.99985993668456485</v>
+        <v>0.99955133731753554</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -4578,16 +4611,16 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>2.7790286632305791e-05</v>
+        <v>2.8894011543190281e-05</v>
       </c>
       <c r="C186">
-        <v>8.0009801629741617e-05</v>
+        <v>1.2652931845270665e-05</v>
       </c>
       <c r="D186">
-        <v>2.2203870272988554e-14</v>
+        <v>2.2204231673562641e-14</v>
       </c>
       <c r="E186">
-        <v>0.99989219991171585</v>
+        <v>0.99995845305658948</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -4598,16 +4631,16 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>3.0663426785203418e-05</v>
+        <v>4.9326610846106886e-05</v>
       </c>
       <c r="C187">
-        <v>6.7553482667303608e-05</v>
+        <v>1.182553252935609e-06</v>
       </c>
       <c r="D187">
-        <v>2.2203930826673661e-14</v>
+        <v>2.2204182928414057e-14</v>
       </c>
       <c r="E187">
-        <v>0.99990178309052535</v>
+        <v>0.9999494908358787</v>
       </c>
       <c r="F187">
         <v>4</v>
@@ -4618,16 +4651,16 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4.6554835513076234e-05</v>
+        <v>6.9099130529721482e-05</v>
       </c>
       <c r="C188">
-        <v>6.433375778778769e-06</v>
+        <v>1.5515121801660178e-05</v>
       </c>
       <c r="D188">
-        <v>2.2204171234556531e-14</v>
+        <v>2.2203998440858504e-14</v>
       </c>
       <c r="E188">
-        <v>0.99994701178868595</v>
+        <v>0.99991538574764638</v>
       </c>
       <c r="F188">
         <v>4</v>
@@ -4638,16 +4671,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.00017322625038582428</v>
+        <v>0.00010861694332354995</v>
       </c>
       <c r="C189">
-        <v>4.0730686815144991e-05</v>
+        <v>3.9579507003857187e-05</v>
       </c>
       <c r="D189">
-        <v>2.2203353519627353e-14</v>
+        <v>2.2203653749082851e-14</v>
       </c>
       <c r="E189">
-        <v>0.99978604306277685</v>
+        <v>0.99985180354965042</v>
       </c>
       <c r="F189">
         <v>4</v>
@@ -4658,16 +4691,16 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>8.841720823238746e-05</v>
+        <v>0.00013515182085402304</v>
       </c>
       <c r="C190">
-        <v>2.6170205329700096e-05</v>
+        <v>4.9114945588886768e-06</v>
       </c>
       <c r="D190">
-        <v>2.2203835493657262e-14</v>
+        <v>2.2203689687776895e-14</v>
       </c>
       <c r="E190">
-        <v>0.99988541258641583</v>
+        <v>0.99985993668456485</v>
       </c>
       <c r="F190">
         <v>4</v>
@@ -4678,16 +4711,16 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.00037461438070918575</v>
+        <v>2.7790286632305791e-05</v>
       </c>
       <c r="C191">
-        <v>0.00022984480076818287</v>
+        <v>8.0009801629741617e-05</v>
       </c>
       <c r="D191">
-        <v>2.2201286926286311e-14</v>
+        <v>2.2203870272988554e-14</v>
       </c>
       <c r="E191">
-        <v>0.99939554081850046</v>
+        <v>0.99989219991171585</v>
       </c>
       <c r="F191">
         <v>4</v>
@@ -4698,16 +4731,16 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.00044257321228241835</v>
+        <v>3.0663426785203418e-05</v>
       </c>
       <c r="C192">
-        <v>0.00085735670229511679</v>
+        <v>6.7553482667303608e-05</v>
       </c>
       <c r="D192">
-        <v>2.2198143799991306e-14</v>
+        <v>2.2203930826673661e-14</v>
       </c>
       <c r="E192">
-        <v>0.99870007008540018</v>
+        <v>0.99990178309052535</v>
       </c>
       <c r="F192">
         <v>4</v>
@@ -4718,16 +4751,16 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.00010067577379035283</v>
+        <v>4.6554835513076234e-05</v>
       </c>
       <c r="C193">
-        <v>4.372712889962753e-06</v>
+        <v>6.433375778778769e-06</v>
       </c>
       <c r="D193">
-        <v>2.2203880045324279e-14</v>
+        <v>2.2204171234556531e-14</v>
       </c>
       <c r="E193">
-        <v>0.99989495151329744</v>
+        <v>0.99994701178868595</v>
       </c>
       <c r="F193">
         <v>4</v>
@@ -4738,16 +4771,16 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>4.5521763487380299e-05</v>
+        <v>0.00017322625038582428</v>
       </c>
       <c r="C194">
-        <v>1.1306954643329568e-05</v>
+        <v>4.0730686815144991e-05</v>
       </c>
       <c r="D194">
-        <v>2.220414919060692e-14</v>
+        <v>2.2203353519627353e-14</v>
       </c>
       <c r="E194">
-        <v>0.99994317128184707</v>
+        <v>0.99978604306277685</v>
       </c>
       <c r="F194">
         <v>4</v>
@@ -4758,16 +4791,16 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>2.9005966098669642e-05</v>
+        <v>8.841720823238746e-05</v>
       </c>
       <c r="C195">
-        <v>3.7252380285885188e-05</v>
+        <v>2.6170205329700096e-05</v>
       </c>
       <c r="D195">
-        <v>2.2204110425556636e-14</v>
+        <v>2.2203835493657262e-14</v>
       </c>
       <c r="E195">
-        <v>0.99993374165359317</v>
+        <v>0.99988541258641583</v>
       </c>
       <c r="F195">
         <v>4</v>
@@ -4778,16 +4811,16 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7.4216087277189648e-05</v>
+        <v>0.00037461438070918575</v>
       </c>
       <c r="C196">
-        <v>4.4602540286910803e-05</v>
+        <v>0.00022984480076818287</v>
       </c>
       <c r="D196">
-        <v>2.2203812778907167e-14</v>
+        <v>2.2201286926286311e-14</v>
       </c>
       <c r="E196">
-        <v>0.99988118137241366</v>
+        <v>0.99939554081850046</v>
       </c>
       <c r="F196">
         <v>4</v>
@@ -4798,16 +4831,16 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>4.1939660936518405e-05</v>
+        <v>0.00044257321228241835</v>
       </c>
       <c r="C197">
-        <v>1.4863444807875942e-05</v>
+        <v>0.00085735670229511679</v>
       </c>
       <c r="D197">
-        <v>2.2204147284072255e-14</v>
+        <v>2.2198143799991306e-14</v>
       </c>
       <c r="E197">
-        <v>0.99994319689423339</v>
+        <v>0.99870007008540018</v>
       </c>
       <c r="F197">
         <v>4</v>
@@ -4818,16 +4851,16 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>2.4977992163575118e-05</v>
+        <v>0.00010067577379035283</v>
       </c>
       <c r="C198">
-        <v>3.833681406190419e-05</v>
+        <v>4.372712889962753e-06</v>
       </c>
       <c r="D198">
-        <v>2.220412443482237e-14</v>
+        <v>2.2203880045324279e-14</v>
       </c>
       <c r="E198">
-        <v>0.99993668519375223</v>
+        <v>0.99989495151329744</v>
       </c>
       <c r="F198">
         <v>4</v>
@@ -4838,16 +4871,16 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>4.1939660936518405e-05</v>
+        <v>4.5521763487380299e-05</v>
       </c>
       <c r="C199">
-        <v>1.4863444807875942e-05</v>
+        <v>1.1306954643329568e-05</v>
       </c>
       <c r="D199">
-        <v>2.2204147284072255e-14</v>
+        <v>2.220414919060692e-14</v>
       </c>
       <c r="E199">
-        <v>0.99994319689423339</v>
+        <v>0.99994317128184707</v>
       </c>
       <c r="F199">
         <v>4</v>
@@ -4858,16 +4891,16 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>9.5941152125889409e-05</v>
+        <v>2.9005966098669642e-05</v>
       </c>
       <c r="C200">
-        <v>2.6151455615034796e-05</v>
+        <v>3.7252380285885188e-05</v>
       </c>
       <c r="D200">
-        <v>2.220380738430835e-14</v>
+        <v>2.2204110425556636e-14</v>
       </c>
       <c r="E200">
-        <v>0.99987790739223692</v>
+        <v>0.99993374165359317</v>
       </c>
       <c r="F200">
         <v>4</v>
@@ -4878,16 +4911,16 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>6.106205589531165e-06</v>
+        <v>7.4216087277189648e-05</v>
       </c>
       <c r="C201">
-        <v>2.1037542864636262e-05</v>
+        <v>4.4602540286910803e-05</v>
       </c>
       <c r="D201">
-        <v>2.2204312744891347e-14</v>
+        <v>2.2203812778907167e-14</v>
       </c>
       <c r="E201">
-        <v>0.99997285625152366</v>
+        <v>0.99988118137241366</v>
       </c>
       <c r="F201">
         <v>4</v>
@@ -4898,16 +4931,16 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.00017032606229871542</v>
+        <v>4.1939660936518405e-05</v>
       </c>
       <c r="C202">
-        <v>0.00022845065498152298</v>
+        <v>1.4863444807875942e-05</v>
       </c>
       <c r="D202">
-        <v>2.2202336638954748e-14</v>
+        <v>2.2204147284072255e-14</v>
       </c>
       <c r="E202">
-        <v>0.99960122328269763</v>
+        <v>0.99994319689423339</v>
       </c>
       <c r="F202">
         <v>4</v>
@@ -4918,16 +4951,16 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>6.1003874384018957e-05</v>
+        <v>2.4977992163575118e-05</v>
       </c>
       <c r="C203">
-        <v>7.9787129914956207e-05</v>
+        <v>3.833681406190419e-05</v>
       </c>
       <c r="D203">
-        <v>2.2203706137996714e-14</v>
+        <v>2.220412443482237e-14</v>
       </c>
       <c r="E203">
-        <v>0.99985920899567893</v>
+        <v>0.99993668519375223</v>
       </c>
       <c r="F203">
         <v>4</v>
@@ -4938,16 +4971,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>5.5421468624545727e-05</v>
+        <v>4.1939660936518405e-05</v>
       </c>
       <c r="C204">
-        <v>3.6208133366154854e-05</v>
+        <v>1.4863444807875942e-05</v>
       </c>
       <c r="D204">
-        <v>2.2203960674621628e-14</v>
+        <v>2.2204147284072255e-14</v>
       </c>
       <c r="E204">
-        <v>0.99990837039798697</v>
+        <v>0.99994319689423339</v>
       </c>
       <c r="F204">
         <v>4</v>
@@ -4958,16 +4991,16 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>2.2206259523077938e-05</v>
+        <v>9.5941152125889409e-05</v>
       </c>
       <c r="C205">
-        <v>9.7897945425666616e-05</v>
+        <v>2.6151455615034796e-05</v>
       </c>
       <c r="D205">
-        <v>2.2203801101247561e-14</v>
+        <v>2.220380738430835e-14</v>
       </c>
       <c r="E205">
-        <v>0.99987989579502901</v>
+        <v>0.99987790739223692</v>
       </c>
       <c r="F205">
         <v>4</v>
@@ -4978,16 +5011,16 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>3.9371734048745155e-05</v>
+        <v>6.106205589531165e-06</v>
       </c>
       <c r="C206">
-        <v>4.7013584735017905e-05</v>
+        <v>2.1037542864636262e-05</v>
       </c>
       <c r="D206">
-        <v>2.2203993573877717e-14</v>
+        <v>2.2204312744891347e-14</v>
       </c>
       <c r="E206">
-        <v>0.99991361468119411</v>
+        <v>0.99997285625152366</v>
       </c>
       <c r="F206">
         <v>4</v>
@@ -4998,16 +5031,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>5.3690418604296987e-05</v>
+        <v>0.00017032606229871542</v>
       </c>
       <c r="C207">
-        <v>9.04296605844682e-06</v>
+        <v>0.00022845065498152298</v>
       </c>
       <c r="D207">
-        <v>2.2204128450932064e-14</v>
+        <v>2.2202336638954748e-14</v>
       </c>
       <c r="E207">
-        <v>0.9999372666153149</v>
+        <v>0.99960122328269763</v>
       </c>
       <c r="F207">
         <v>4</v>
@@ -5018,16 +5051,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.8676821910847133e-05</v>
+        <v>6.1003874384018957e-05</v>
       </c>
       <c r="C208">
-        <v>3.6551458220011189e-06</v>
+        <v>7.9787129914956207e-05</v>
       </c>
       <c r="D208">
-        <v>2.2204339171239861e-14</v>
+        <v>2.2203706137996714e-14</v>
       </c>
       <c r="E208">
-        <v>0.99997766803224497</v>
+        <v>0.99985920899567893</v>
       </c>
       <c r="F208">
         <v>4</v>
@@ -5038,19 +5071,19 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7.8832362338038612e-06</v>
+        <v>5.5421468624545727e-05</v>
       </c>
       <c r="C209">
-        <v>0.99999211637061691</v>
+        <v>3.6208133366154854e-05</v>
       </c>
       <c r="D209">
-        <v>2.2204419641380966e-14</v>
+        <v>2.2203960674621628e-14</v>
       </c>
       <c r="E209">
-        <v>3.9312706985326125e-10</v>
+        <v>0.99990837039798697</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -5058,19 +5091,19 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.6918305784885134e-05</v>
+        <v>2.2206259523077938e-05</v>
       </c>
       <c r="C210">
-        <v>0.99998308154473436</v>
+        <v>9.7897945425666616e-05</v>
       </c>
       <c r="D210">
-        <v>2.2204368862462008e-14</v>
+        <v>2.2203801101247561e-14</v>
       </c>
       <c r="E210">
-        <v>1.4945839370702931e-10</v>
+        <v>0.99987989579502901</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
@@ -5078,19 +5111,19 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.00021556368943289922</v>
+        <v>3.9371734048745155e-05</v>
       </c>
       <c r="C211">
-        <v>0.99978443566039543</v>
+        <v>4.7013584735017905e-05</v>
       </c>
       <c r="D211">
-        <v>2.2203292858049358e-14</v>
+        <v>2.2203993573877717e-14</v>
       </c>
       <c r="E211">
-        <v>6.5014942758145832e-10</v>
+        <v>0.99991361468119411</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
@@ -5098,19 +5131,19 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1.4028488679456247e-06</v>
+        <v>5.3690418604296987e-05</v>
       </c>
       <c r="C212">
-        <v>0.99999859680871528</v>
+        <v>9.04296605844682e-06</v>
       </c>
       <c r="D212">
-        <v>2.2204453744813527e-14</v>
+        <v>2.2204128450932064e-14</v>
       </c>
       <c r="E212">
-        <v>3.423947493796951e-10</v>
+        <v>0.9999372666153149</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -5118,19 +5151,19 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>9.033636020690663e-06</v>
+        <v>1.8676821910847133e-05</v>
       </c>
       <c r="C213">
-        <v>0.99999096628335604</v>
+        <v>3.6551458220011189e-06</v>
       </c>
       <c r="D213">
-        <v>2.2204411502722934e-14</v>
+        <v>2.2204339171239861e-14</v>
       </c>
       <c r="E213">
-        <v>8.0601231036919234e-11</v>
+        <v>0.99997766803224497</v>
       </c>
       <c r="F213">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -5138,19 +5171,19 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1.4740295056539213e-06</v>
+        <v>0.99999801991671788</v>
       </c>
       <c r="C214">
-        <v>0.99999852582685889</v>
+        <v>6.4988082834007682e-09</v>
       </c>
       <c r="D214">
-        <v>2.2204452636398218e-14</v>
+        <v>2.2204450906314632e-14</v>
       </c>
       <c r="E214">
-        <v>1.4361332382856187e-10</v>
+        <v>1.9735844517086253e-06</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5158,16 +5191,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>6.4586634294382271e-05</v>
+        <v>5.9011374957022131e-05</v>
       </c>
       <c r="C215">
-        <v>9.252642425185133e-05</v>
+        <v>0.00018077712782674067</v>
       </c>
       <c r="D215">
-        <v>2.2203853938341912e-14</v>
+        <v>1.0015984694432313e-09</v>
       </c>
       <c r="E215">
-        <v>0.99984288694143164</v>
+        <v>0.9997602104956177</v>
       </c>
       <c r="F215">
         <v>4</v>
@@ -5178,19 +5211,19 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>3.8266544149245832e-06</v>
+        <v>7.8832362338038612e-06</v>
       </c>
       <c r="C216">
-        <v>8.3596644457017561e-06</v>
+        <v>0.99999211637061691</v>
       </c>
       <c r="D216">
-        <v>2.2204397242011993e-14</v>
+        <v>2.2204419641380966e-14</v>
       </c>
       <c r="E216">
-        <v>0.99998781368111711</v>
+        <v>3.9312706985326125e-10</v>
       </c>
       <c r="F216">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -5198,16 +5231,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>5.4439839634757173e-05</v>
+        <v>1.6918305784885134e-05</v>
       </c>
       <c r="C217">
-        <v>0.99994556005307378</v>
+        <v>0.99998308154473436</v>
       </c>
       <c r="D217">
-        <v>2.2204168613442045e-14</v>
+        <v>2.2204368862462008e-14</v>
       </c>
       <c r="E217">
-        <v>1.0726912399195483e-10</v>
+        <v>1.4945839370702931e-10</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -5218,16 +5251,16 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.00020222052800032291</v>
+        <v>0.00021556368943289922</v>
       </c>
       <c r="C218">
-        <v>0.99979777812790349</v>
+        <v>0.99978443566039543</v>
       </c>
       <c r="D218">
-        <v>2.2203362136729181e-14</v>
+        <v>2.2203292858049358e-14</v>
       </c>
       <c r="E218">
-        <v>1.3440739695905032e-09</v>
+        <v>6.5014942758145832e-10</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -5238,16 +5271,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1.8273620950656358e-05</v>
+        <v>1.4028488679456247e-06</v>
       </c>
       <c r="C219">
-        <v>0.99998172547539099</v>
+        <v>0.99999859680871528</v>
       </c>
       <c r="D219">
-        <v>2.2204364879689434e-14</v>
+        <v>2.2204453744813527e-14</v>
       </c>
       <c r="E219">
-        <v>9.0363615691893932e-10</v>
+        <v>3.423947493796951e-10</v>
       </c>
       <c r="F219">
         <v>2</v>
@@ -5258,16 +5291,16 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>3.2601773564168911e-06</v>
+        <v>9.033636020690663e-06</v>
       </c>
       <c r="C220">
-        <v>0.99999673973667091</v>
+        <v>0.99999096628335604</v>
       </c>
       <c r="D220">
-        <v>2.2204443110102362e-14</v>
+        <v>2.2204411502722934e-14</v>
       </c>
       <c r="E220">
-        <v>8.5950535331058532e-11</v>
+        <v>8.0601231036919234e-11</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -5278,16 +5311,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2.6075118026958857e-06</v>
+        <v>1.4740295056539213e-06</v>
       </c>
       <c r="C221">
-        <v>0.99999739240159924</v>
+        <v>0.99999852582685889</v>
       </c>
       <c r="D221">
-        <v>2.2204447006772706e-14</v>
+        <v>2.2204452636398218e-14</v>
       </c>
       <c r="E221">
-        <v>8.6575758467868173e-11</v>
+        <v>1.4361332382856187e-10</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -5298,19 +5331,19 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>4.8342938379661815e-05</v>
+        <v>6.4586634294382271e-05</v>
       </c>
       <c r="C222">
-        <v>0.99995165694310528</v>
+        <v>9.252642425185133e-05</v>
       </c>
       <c r="D222">
-        <v>2.2204196864808313e-14</v>
+        <v>2.2203853938341912e-14</v>
       </c>
       <c r="E222">
-        <v>1.1849299393634967e-10</v>
+        <v>0.99984288694143164</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
@@ -5318,19 +5351,19 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1.6755334903571314e-05</v>
+        <v>3.8266544149245832e-06</v>
       </c>
       <c r="C223">
-        <v>0.99998324451356846</v>
+        <v>8.3596644457017561e-06</v>
       </c>
       <c r="D223">
-        <v>2.2204370381706323e-14</v>
+        <v>2.2204397242011993e-14</v>
       </c>
       <c r="E223">
-        <v>1.5150566509133149e-10</v>
+        <v>0.99998781368111711</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224">
@@ -5338,19 +5371,19 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.00011117598315938763</v>
+        <v>5.4439839634757173e-05</v>
       </c>
       <c r="C224">
-        <v>4.1919871666018184e-05</v>
+        <v>0.99994556005307378</v>
       </c>
       <c r="D224">
-        <v>2.220362882807619e-14</v>
+        <v>2.2204168613442045e-14</v>
       </c>
       <c r="E224">
-        <v>0.99984690414515243</v>
+        <v>1.0726912399195483e-10</v>
       </c>
       <c r="F224">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -5358,19 +5391,19 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.00010078657942820753</v>
+        <v>0.00020222052800032291</v>
       </c>
       <c r="C225">
-        <v>3.2982308205496169e-05</v>
+        <v>0.99979777812790349</v>
       </c>
       <c r="D225">
-        <v>2.2203736280207116e-14</v>
+        <v>2.2203362136729181e-14</v>
       </c>
       <c r="E225">
-        <v>0.99986623111234396</v>
+        <v>1.3440739695905032e-09</v>
       </c>
       <c r="F225">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -5378,19 +5411,19 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1.9991106481085395e-05</v>
+        <v>1.8273620950656358e-05</v>
       </c>
       <c r="C226">
-        <v>6.7306379922616027e-05</v>
+        <v>0.99998172547539099</v>
       </c>
       <c r="D226">
-        <v>2.220398043293811e-14</v>
+        <v>2.2204364879689434e-14</v>
       </c>
       <c r="E226">
-        <v>0.999912702513574</v>
+        <v>9.0363615691893932e-10</v>
       </c>
       <c r="F226">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -5398,16 +5431,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>3.9445239375930189e-05</v>
+        <v>3.2601773564168911e-06</v>
       </c>
       <c r="C227">
-        <v>0.99996002672258133</v>
+        <v>0.99999673973667091</v>
       </c>
       <c r="D227">
-        <v>2.3101143261323617e-13</v>
+        <v>2.2204443110102362e-14</v>
       </c>
       <c r="E227">
-        <v>5.2803781170963299e-07</v>
+        <v>8.5950535331058532e-11</v>
       </c>
       <c r="F227">
         <v>2</v>
@@ -5418,19 +5451,19 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1.9991106481085395e-05</v>
+        <v>2.6075118026958857e-06</v>
       </c>
       <c r="C228">
-        <v>6.7306379922616027e-05</v>
+        <v>0.99999739240159924</v>
       </c>
       <c r="D228">
-        <v>2.220398043293811e-14</v>
+        <v>2.2204447006772706e-14</v>
       </c>
       <c r="E228">
-        <v>0.999912702513574</v>
+        <v>8.6575758467868173e-11</v>
       </c>
       <c r="F228">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -5438,19 +5471,19 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7.9755172875474804e-06</v>
+        <v>4.8342938379661815e-05</v>
       </c>
       <c r="C229">
-        <v>0.00010704543495237285</v>
+        <v>0.99995165694310528</v>
       </c>
       <c r="D229">
-        <v>9.4693975075343235e-13</v>
+        <v>2.2204196864808313e-14</v>
       </c>
       <c r="E229">
-        <v>0.99988497904681317</v>
+        <v>1.1849299393634967e-10</v>
       </c>
       <c r="F229">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -5458,19 +5491,19 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>2.4265346341022101e-05</v>
+        <v>1.6755334903571314e-05</v>
       </c>
       <c r="C230">
-        <v>4.9752565339170958e-05</v>
+        <v>0.99998324451356846</v>
       </c>
       <c r="D230">
-        <v>2.2204053746621293e-14</v>
+        <v>2.2204370381706323e-14</v>
       </c>
       <c r="E230">
-        <v>0.99992598208829764</v>
+        <v>1.5150566509133149e-10</v>
       </c>
       <c r="F230">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -5478,16 +5511,16 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1.0976458668420254e-05</v>
+        <v>0.00011117598315938763</v>
       </c>
       <c r="C231">
-        <v>8.2235567215103108e-05</v>
+        <v>4.1919871666018184e-05</v>
       </c>
       <c r="D231">
-        <v>2.2203963046767343e-14</v>
+        <v>2.220362882807619e-14</v>
       </c>
       <c r="E231">
-        <v>0.99990678797409427</v>
+        <v>0.99984690414515243</v>
       </c>
       <c r="F231">
         <v>4</v>
@@ -5498,16 +5531,16 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>2.1828109950865597e-05</v>
+        <v>0.00010078657942820753</v>
       </c>
       <c r="C232">
-        <v>2.7165527460759286e-05</v>
+        <v>3.2982308205496169e-05</v>
       </c>
       <c r="D232">
-        <v>2.2204191660898493e-14</v>
+        <v>2.2203736280207116e-14</v>
       </c>
       <c r="E232">
-        <v>0.99995100636256629</v>
+        <v>0.99986623111234396</v>
       </c>
       <c r="F232">
         <v>4</v>
@@ -5518,16 +5551,16 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1.6201470729940619e-05</v>
+        <v>1.9991106481085395e-05</v>
       </c>
       <c r="C233">
-        <v>7.4281549469782249e-06</v>
+        <v>6.7306379922616027e-05</v>
       </c>
       <c r="D233">
-        <v>2.2204331015454611e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E233">
-        <v>0.99997637037430087</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F233">
         <v>4</v>
@@ -5538,19 +5571,19 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>0.00011117598315938763</v>
+        <v>3.9445239375930189e-05</v>
       </c>
       <c r="C234">
-        <v>4.1919871666018184e-05</v>
+        <v>0.99996002672258133</v>
       </c>
       <c r="D234">
-        <v>2.220362882807619e-14</v>
+        <v>2.3101143261323617e-13</v>
       </c>
       <c r="E234">
-        <v>0.99984690414515243</v>
+        <v>5.2803781170963299e-07</v>
       </c>
       <c r="F234">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -5558,16 +5591,16 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>4.9890621177102413e-06</v>
+        <v>1.9991106481085395e-05</v>
       </c>
       <c r="C235">
-        <v>7.4208964326214264e-05</v>
+        <v>6.7306379922616027e-05</v>
       </c>
       <c r="D235">
-        <v>2.2204029423558087e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E235">
-        <v>0.99992080197353383</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F235">
         <v>4</v>
@@ -5578,16 +5611,16 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>5.302259986058798e-06</v>
+        <v>7.9755172875474804e-06</v>
       </c>
       <c r="C236">
-        <v>3.0094583280807275e-06</v>
+        <v>0.00010704543495237285</v>
       </c>
       <c r="D236">
-        <v>9.0460246521643191e-14</v>
+        <v>9.4693975075343235e-13</v>
       </c>
       <c r="E236">
-        <v>0.99999168828159546</v>
+        <v>0.99988497904681317</v>
       </c>
       <c r="F236">
         <v>4</v>
@@ -5598,16 +5631,16 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>3.269418467428015e-05</v>
+        <v>2.4265346341022101e-05</v>
       </c>
       <c r="C237">
-        <v>1.1520086403911068e-06</v>
+        <v>4.9752565339170958e-05</v>
       </c>
       <c r="D237">
-        <v>2.2204273715705425e-14</v>
+        <v>2.2204053746621293e-14</v>
       </c>
       <c r="E237">
-        <v>0.9999661538066632</v>
+        <v>0.99992598208829764</v>
       </c>
       <c r="F237">
         <v>4</v>
@@ -5618,16 +5651,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>6.0975141829518165e-06</v>
+        <v>1.0976458668420254e-05</v>
       </c>
       <c r="C238">
-        <v>1.9102060983773306e-05</v>
+        <v>8.2235567215103108e-05</v>
       </c>
       <c r="D238">
-        <v>4.6782763628320938e-14</v>
+        <v>2.2203963046767343e-14</v>
       </c>
       <c r="E238">
-        <v>0.99997480042478659</v>
+        <v>0.99990678797409427</v>
       </c>
       <c r="F238">
         <v>4</v>
@@ -5638,16 +5671,16 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>1.9991106481085395e-05</v>
+        <v>2.1828109950865597e-05</v>
       </c>
       <c r="C239">
-        <v>6.7306379922616027e-05</v>
+        <v>2.7165527460759286e-05</v>
       </c>
       <c r="D239">
-        <v>2.220398043293811e-14</v>
+        <v>2.2204191660898493e-14</v>
       </c>
       <c r="E239">
-        <v>0.999912702513574</v>
+        <v>0.99995100636256629</v>
       </c>
       <c r="F239">
         <v>4</v>
@@ -5658,16 +5691,16 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1.9991106481085395e-05</v>
+        <v>1.6201470729940619e-05</v>
       </c>
       <c r="C240">
-        <v>6.7306379922616027e-05</v>
+        <v>7.4281549469782249e-06</v>
       </c>
       <c r="D240">
-        <v>2.220398043293811e-14</v>
+        <v>2.2204331015454611e-14</v>
       </c>
       <c r="E240">
-        <v>0.999912702513574</v>
+        <v>0.99997637037430087</v>
       </c>
       <c r="F240">
         <v>4</v>
@@ -5678,16 +5711,16 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>5.4148501963526086e-06</v>
+        <v>0.00011117598315938763</v>
       </c>
       <c r="C241">
-        <v>1.6947852818733014e-05</v>
+        <v>4.1919871666018184e-05</v>
       </c>
       <c r="D241">
-        <v>2.2204341484747056e-14</v>
+        <v>2.220362882807619e-14</v>
       </c>
       <c r="E241">
-        <v>0.99997763729696265</v>
+        <v>0.99984690414515243</v>
       </c>
       <c r="F241">
         <v>4</v>
@@ -5698,16 +5731,16 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>1.9991106481085395e-05</v>
+        <v>4.9890621177102413e-06</v>
       </c>
       <c r="C242">
-        <v>6.7306379922616027e-05</v>
+        <v>7.4208964326214264e-05</v>
       </c>
       <c r="D242">
-        <v>2.220398043293811e-14</v>
+        <v>2.2204029423558087e-14</v>
       </c>
       <c r="E242">
-        <v>0.999912702513574</v>
+        <v>0.99992080197353383</v>
       </c>
       <c r="F242">
         <v>4</v>
@@ -5718,16 +5751,16 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>5.6719095236417728e-05</v>
+        <v>5.302259986058798e-06</v>
       </c>
       <c r="C243">
-        <v>8.03275454360354e-05</v>
+        <v>3.0094583280807275e-06</v>
       </c>
       <c r="D243">
-        <v>2.2203715051222186e-14</v>
+        <v>9.0460246521643191e-14</v>
       </c>
       <c r="E243">
-        <v>0.99986295335930542</v>
+        <v>0.99999168828159546</v>
       </c>
       <c r="F243">
         <v>4</v>
@@ -5738,16 +5771,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>2.0674230407263387e-05</v>
+        <v>3.269418467428015e-05</v>
       </c>
       <c r="C244">
-        <v>5.3472457650233491e-05</v>
+        <v>1.1520086403911068e-06</v>
       </c>
       <c r="D244">
-        <v>2.220405733500801e-14</v>
+        <v>2.2204273715705425e-14</v>
       </c>
       <c r="E244">
-        <v>0.9999258533119203</v>
+        <v>0.9999661538066632</v>
       </c>
       <c r="F244">
         <v>4</v>
@@ -5758,16 +5791,16 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>6.491970418197849e-06</v>
+        <v>6.0975141829518165e-06</v>
       </c>
       <c r="C245">
-        <v>3.8180440224299373e-06</v>
+        <v>1.9102060983773306e-05</v>
       </c>
       <c r="D245">
-        <v>2.2204403769578903e-14</v>
+        <v>4.6782763628320938e-14</v>
       </c>
       <c r="E245">
-        <v>0.99998968998553706</v>
+        <v>0.99997480042478659</v>
       </c>
       <c r="F245">
         <v>4</v>
@@ -5778,16 +5811,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>6.8010934491696576e-06</v>
+        <v>1.9991106481085395e-05</v>
       </c>
       <c r="C246">
-        <v>0.00011675496612310728</v>
+        <v>6.7306379922616027e-05</v>
       </c>
       <c r="D246">
-        <v>2.2203802341622825e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E246">
-        <v>0.99987644394040553</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F246">
         <v>4</v>
@@ -5798,16 +5831,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.00010667832549155455</v>
+        <v>1.9991106481085395e-05</v>
       </c>
       <c r="C247">
-        <v>8.6005428693432868e-06</v>
+        <v>6.7306379922616027e-05</v>
       </c>
       <c r="D247">
-        <v>2.2203831428722221e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E247">
-        <v>0.99988472113161697</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F247">
         <v>4</v>
@@ -5818,16 +5851,16 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.00027486288116078373</v>
+        <v>5.4148501963526086e-06</v>
       </c>
       <c r="C248">
-        <v>8.3413963427700681e-06</v>
+        <v>1.6947852818733014e-05</v>
       </c>
       <c r="D248">
-        <v>2.2202899180626666e-14</v>
+        <v>2.2204341484747056e-14</v>
       </c>
       <c r="E248">
-        <v>0.99971679572247429</v>
+        <v>0.99997763729696265</v>
       </c>
       <c r="F248">
         <v>4</v>
@@ -5838,16 +5871,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>5.2867530287832973e-05</v>
+        <v>1.9991106481085395e-05</v>
       </c>
       <c r="C249">
-        <v>1.9418535129333826e-05</v>
+        <v>6.7306379922616027e-05</v>
       </c>
       <c r="D249">
-        <v>2.220406290352796e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E249">
-        <v>0.9999277139345607</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -5858,16 +5891,16 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>5.4802123141374879e-05</v>
+        <v>5.6719095236417728e-05</v>
       </c>
       <c r="C250">
-        <v>7.8880676348155274e-05</v>
+        <v>8.03275454360354e-05</v>
       </c>
       <c r="D250">
-        <v>2.220374471739794e-14</v>
+        <v>2.2203715051222186e-14</v>
       </c>
       <c r="E250">
-        <v>0.99986631720048835</v>
+        <v>0.99986295335930542</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -5878,16 +5911,16 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>4.5975192495614886e-05</v>
+        <v>2.0674230407263387e-05</v>
       </c>
       <c r="C251">
-        <v>3.2057659539940316e-05</v>
+        <v>5.3472457650233491e-05</v>
       </c>
       <c r="D251">
-        <v>2.2204033623475061e-14</v>
+        <v>2.220405733500801e-14</v>
       </c>
       <c r="E251">
-        <v>0.99992196714794224</v>
+        <v>0.9999258533119203</v>
       </c>
       <c r="F251">
         <v>4</v>
@@ -5898,16 +5931,16 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>4.2480453689040309e-05</v>
+        <v>6.491970418197849e-06</v>
       </c>
       <c r="C252">
-        <v>8.1776954927089105e-06</v>
+        <v>3.8180440224299373e-06</v>
       </c>
       <c r="D252">
-        <v>2.2204196051237495e-14</v>
+        <v>2.2204403769578903e-14</v>
       </c>
       <c r="E252">
-        <v>0.9999493418507962</v>
+        <v>0.99998968998553706</v>
       </c>
       <c r="F252">
         <v>4</v>
@@ -5918,16 +5951,16 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>6.2324793685065932e-06</v>
+        <v>6.8010934491696576e-06</v>
       </c>
       <c r="C253">
-        <v>5.1083786072827219e-06</v>
+        <v>0.00011675496612310728</v>
       </c>
       <c r="D253">
-        <v>5.4803076596036452e-14</v>
+        <v>2.2203802341622825e-14</v>
       </c>
       <c r="E253">
-        <v>0.99998865914196933</v>
+        <v>0.99987644394040553</v>
       </c>
       <c r="F253">
         <v>4</v>
@@ -5938,16 +5971,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>6.1367702676785584e-05</v>
+        <v>0.00010667832549155455</v>
       </c>
       <c r="C254">
-        <v>2.9452489486373389e-05</v>
+        <v>8.6005428693432868e-06</v>
       </c>
       <c r="D254">
-        <v>2.2203964019923565e-14</v>
+        <v>2.2203831428722221e-14</v>
       </c>
       <c r="E254">
-        <v>0.99990917980781469</v>
+        <v>0.99988472113161697</v>
       </c>
       <c r="F254">
         <v>4</v>
@@ -5958,16 +5991,16 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.00010217777626395316</v>
+        <v>0.00027486288116078373</v>
       </c>
       <c r="C255">
-        <v>0.00049180952834929732</v>
+        <v>8.3413963427700681e-06</v>
       </c>
       <c r="D255">
-        <v>2.2201591423444031e-14</v>
+        <v>2.2202899180626666e-14</v>
       </c>
       <c r="E255">
-        <v>0.99940601269536444</v>
+        <v>0.99971679572247429</v>
       </c>
       <c r="F255">
         <v>4</v>
@@ -5978,16 +6011,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>4.5571890421715513e-06</v>
+        <v>5.2867530287832973e-05</v>
       </c>
       <c r="C256">
-        <v>4.5014511624463903e-06</v>
+        <v>1.9418535129333826e-05</v>
       </c>
       <c r="D256">
-        <v>2.2204411439711675e-14</v>
+        <v>2.220406290352796e-14</v>
       </c>
       <c r="E256">
-        <v>0.99999094135977329</v>
+        <v>0.9999277139345607</v>
       </c>
       <c r="F256">
         <v>4</v>
@@ -5998,16 +6031,16 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>8.1015430514320265e-06</v>
+        <v>5.4802123141374879e-05</v>
       </c>
       <c r="C257">
-        <v>8.3231676659831821e-05</v>
+        <v>7.8880676348155274e-05</v>
       </c>
       <c r="D257">
-        <v>2.2203980476402178e-14</v>
+        <v>2.220374471739794e-14</v>
       </c>
       <c r="E257">
-        <v>0.99990866678026646</v>
+        <v>0.99986631720048835</v>
       </c>
       <c r="F257">
         <v>4</v>
@@ -6018,16 +6051,16 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>4.1086982993888469e-05</v>
+        <v>4.5975192495614886e-05</v>
       </c>
       <c r="C258">
-        <v>3.6554341175614137e-05</v>
+        <v>3.2057659539940316e-05</v>
       </c>
       <c r="D258">
-        <v>2.2204038693761579e-14</v>
+        <v>2.2204033623475061e-14</v>
       </c>
       <c r="E258">
-        <v>0.99992235867580825</v>
+        <v>0.99992196714794224</v>
       </c>
       <c r="F258">
         <v>4</v>
@@ -6038,16 +6071,16 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>9.4859993109400123e-06</v>
+        <v>4.2480453689040309e-05</v>
       </c>
       <c r="C259">
-        <v>1.1826194977981873e-05</v>
+        <v>8.1776954927089105e-06</v>
       </c>
       <c r="D259">
-        <v>2.2204347856215685e-14</v>
+        <v>2.2204196051237495e-14</v>
       </c>
       <c r="E259">
-        <v>0.99997868780568877</v>
+        <v>0.9999493418507962</v>
       </c>
       <c r="F259">
         <v>4</v>
@@ -6058,16 +6091,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.0002128545680173843</v>
+        <v>6.2324793685065932e-06</v>
       </c>
       <c r="C260">
-        <v>4.1817056287500786e-05</v>
+        <v>5.1083786072827219e-06</v>
       </c>
       <c r="D260">
-        <v>2.2203079363656386e-14</v>
+        <v>5.4803076596036452e-14</v>
       </c>
       <c r="E260">
-        <v>0.99974532837567298</v>
+        <v>0.99998865914196933</v>
       </c>
       <c r="F260">
         <v>4</v>
@@ -6078,16 +6111,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>4.4874958248358488e-05</v>
+        <v>6.1367702676785584e-05</v>
       </c>
       <c r="C261">
-        <v>0.00016133091927061205</v>
+        <v>2.9452489486373389e-05</v>
       </c>
       <c r="D261">
-        <v>2.220334168715039e-14</v>
+        <v>2.2203964019923565e-14</v>
       </c>
       <c r="E261">
-        <v>0.99979379412245883</v>
+        <v>0.99990917980781469</v>
       </c>
       <c r="F261">
         <v>4</v>
@@ -6098,18 +6131,238 @@
         <v>261</v>
       </c>
       <c r="B262">
+        <v>0.00010217777626395316</v>
+      </c>
+      <c r="C262">
+        <v>0.00049180952834929732</v>
+      </c>
+      <c r="D262">
+        <v>2.2201591423444031e-14</v>
+      </c>
+      <c r="E262">
+        <v>0.99940601269536444</v>
+      </c>
+      <c r="F262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>4.5571890421715513e-06</v>
+      </c>
+      <c r="C263">
+        <v>4.5014511624463903e-06</v>
+      </c>
+      <c r="D263">
+        <v>2.2204411439711675e-14</v>
+      </c>
+      <c r="E263">
+        <v>0.99999094135977329</v>
+      </c>
+      <c r="F263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>8.1015430514320265e-06</v>
+      </c>
+      <c r="C264">
+        <v>8.3231676659831821e-05</v>
+      </c>
+      <c r="D264">
+        <v>2.2203980476402178e-14</v>
+      </c>
+      <c r="E264">
+        <v>0.99990866678026646</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>4.1086982993888469e-05</v>
+      </c>
+      <c r="C265">
+        <v>3.6554341175614137e-05</v>
+      </c>
+      <c r="D265">
+        <v>2.2204038693761579e-14</v>
+      </c>
+      <c r="E265">
+        <v>0.99992235867580825</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>9.4859993109400123e-06</v>
+      </c>
+      <c r="C266">
+        <v>1.1826194977981873e-05</v>
+      </c>
+      <c r="D266">
+        <v>2.2204347856215685e-14</v>
+      </c>
+      <c r="E266">
+        <v>0.99997868780568877</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>0.0002128545680173843</v>
+      </c>
+      <c r="C267">
+        <v>4.1817056287500786e-05</v>
+      </c>
+      <c r="D267">
+        <v>2.2203079363656386e-14</v>
+      </c>
+      <c r="E267">
+        <v>0.99974532837567298</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>4.4874958248358488e-05</v>
+      </c>
+      <c r="C268">
+        <v>0.00016133091927061205</v>
+      </c>
+      <c r="D268">
+        <v>2.220334168715039e-14</v>
+      </c>
+      <c r="E268">
+        <v>0.99979379412245883</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>6.8486621440085255e-06</v>
+      </c>
+      <c r="C269">
+        <v>0.00059018443451305054</v>
+      </c>
+      <c r="D269">
+        <v>3.0033699804683813e-07</v>
+      </c>
+      <c r="E269">
+        <v>0.99940266656634491</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>1.7149316457238284e-05</v>
+      </c>
+      <c r="C270">
+        <v>0.0065666141756804608</v>
+      </c>
+      <c r="D270">
+        <v>6.2538964073148791e-10</v>
+      </c>
+      <c r="E270">
+        <v>0.99341623588247252</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>4.282137070997682e-06</v>
+      </c>
+      <c r="C271">
+        <v>0.0029898845119506528</v>
+      </c>
+      <c r="D271">
+        <v>2.2005540116186111e-07</v>
+      </c>
+      <c r="E271">
+        <v>0.99700561329557713</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>4.3245716420053383e-06</v>
+      </c>
+      <c r="C272">
+        <v>0.0019053996178266441</v>
+      </c>
+      <c r="D272">
+        <v>3.1737706024621991e-07</v>
+      </c>
+      <c r="E272">
+        <v>0.99808995843347104</v>
+      </c>
+      <c r="F272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273">
         <v>0.00013459137788133759</v>
       </c>
-      <c r="C262">
+      <c r="C273">
         <v>3.8838293427408629e-05</v>
       </c>
-      <c r="D262">
+      <c r="D273">
         <v>2.220350903477483e-14</v>
       </c>
-      <c r="E262">
+      <c r="E273">
         <v>0.99982657032866917</v>
       </c>
-      <c r="F262">
+      <c r="F273">
         <v>4</v>
       </c>
     </row>
